--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3669" uniqueCount="2536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3669" uniqueCount="2535">
   <si>
     <t>#if NUM_EXTRUDER == 1</t>
   </si>
@@ -5292,9 +5292,6 @@
   </si>
   <si>
     <t>FUI_TEXT_WAIT_FOR_OK_EN,</t>
-  </si>
-  <si>
-    <t>FUI_TEXT_UNLOAD_FILAMENT_EN,</t>
   </si>
   <si>
     <t>FUI_TEXT_FIL_SENSOR_ONOFF_EN,</t>
@@ -7682,8 +7679,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7991,8 +7989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8013,14 +8011,14 @@
         <v>932</v>
       </c>
       <c r="C1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE(F1," ",I1)</f>
         <v>#define UI_TEXT_ON_ID 0</v>
       </c>
       <c r="F1" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -8041,7 +8039,7 @@
         <v>#define UI_TEXT_OFF_ID 1</v>
       </c>
       <c r="F2" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="I2">
         <f>I1+1</f>
@@ -8063,7 +8061,7 @@
         <v>#define UI_TEXT_NA_ID 2</v>
       </c>
       <c r="F3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="1">I2+1</f>
@@ -8085,7 +8083,7 @@
         <v>#define UI_TEXT_YES_ID 3</v>
       </c>
       <c r="F4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -8107,7 +8105,7 @@
         <v>#define UI_TEXT_NO_ID 4</v>
       </c>
       <c r="F5" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -8129,7 +8127,7 @@
         <v>#define UI_TEXT_PRINT_POS_ID 5</v>
       </c>
       <c r="F6" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -8151,7 +8149,7 @@
         <v>#define UI_TEXT_PRINTING_ID 6</v>
       </c>
       <c r="F7" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -8173,7 +8171,7 @@
         <v>#define UI_TEXT_IDLE_ID 7</v>
       </c>
       <c r="F8" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -8195,7 +8193,7 @@
         <v>#define UI_TEXT_NOSDCARD_ID 8</v>
       </c>
       <c r="F9" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -8217,7 +8215,7 @@
         <v>#define UI_TEXT_ERROR_ID 9</v>
       </c>
       <c r="F10" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -8239,7 +8237,7 @@
         <v>#define UI_TEXT_BACK_ID 10</v>
       </c>
       <c r="F11" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -8261,7 +8259,7 @@
         <v>#define UI_TEXT_QUICK_SETTINGS_ID 11</v>
       </c>
       <c r="F12" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -8283,7 +8281,7 @@
         <v>#define UI_TEXT_ERRORMSG_ID 12</v>
       </c>
       <c r="F13" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -8305,7 +8303,7 @@
         <v>#define UI_TEXT_CONFIGURATION_ID 13</v>
       </c>
       <c r="F14" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -8327,7 +8325,7 @@
         <v>#define UI_TEXT_POSITION_ID 14</v>
       </c>
       <c r="F15" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -8349,7 +8347,7 @@
         <v>#define UI_TEXT_EXTRUDER_ID 15</v>
       </c>
       <c r="F16" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -8371,7 +8369,7 @@
         <v>#define UI_TEXT_SD_CARD_ID 16</v>
       </c>
       <c r="F17" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -8393,7 +8391,7 @@
         <v>#define UI_TEXT_DEBUGGING_ID 17</v>
       </c>
       <c r="F18" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -8415,7 +8413,7 @@
         <v>#define UI_TEXT_HOME_DELTA_ID 18</v>
       </c>
       <c r="F19" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -8437,7 +8435,7 @@
         <v>#define UI_TEXT_HOME_ALL_ID 19</v>
       </c>
       <c r="F20" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -8459,7 +8457,7 @@
         <v>#define UI_TEXT_HOME_X_ID 20</v>
       </c>
       <c r="F21" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
@@ -8481,7 +8479,7 @@
         <v>#define UI_TEXT_HOME_Y_ID 21</v>
       </c>
       <c r="F22" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -8503,7 +8501,7 @@
         <v>#define UI_TEXT_HOME_Z_ID 22</v>
       </c>
       <c r="F23" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -8525,7 +8523,7 @@
         <v>#define UI_TEXT_PREHEAT_PLA_ID 23</v>
       </c>
       <c r="F24" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -8547,7 +8545,7 @@
         <v>#define UI_TEXT_PREHEAT_ABS_ID 24</v>
       </c>
       <c r="F25" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
@@ -8569,7 +8567,7 @@
         <v>#define UI_TEXT_LIGHTS_ONOFF_ID 25</v>
       </c>
       <c r="F26" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -8591,7 +8589,7 @@
         <v>#define UI_TEXT_COOLDOWN_ID 26</v>
       </c>
       <c r="F27" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -8613,7 +8611,7 @@
         <v>#define UI_TEXT_SET_TO_ORIGIN_ID 27</v>
       </c>
       <c r="F28" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -8635,7 +8633,7 @@
         <v>#define UI_TEXT_DISABLE_STEPPER_ID 28</v>
       </c>
       <c r="F29" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -8657,7 +8655,7 @@
         <v>#define UI_TEXT_X_POSITION_ID 29</v>
       </c>
       <c r="F30" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -8679,7 +8677,7 @@
         <v>#define UI_TEXT_X_POS_FAST_ID 30</v>
       </c>
       <c r="F31" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -8701,7 +8699,7 @@
         <v>#define UI_TEXT_Y_POSITION_ID 31</v>
       </c>
       <c r="F32" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -8723,7 +8721,7 @@
         <v>#define UI_TEXT_Y_POS_FAST_ID 32</v>
       </c>
       <c r="F33" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
@@ -8745,7 +8743,7 @@
         <v>#define UI_TEXT_Z_POSITION_ID 33</v>
       </c>
       <c r="F34" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
@@ -8767,7 +8765,7 @@
         <v>#define UI_TEXT_Z_POS_FAST_ID 34</v>
       </c>
       <c r="F35" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
@@ -8789,7 +8787,7 @@
         <v>#define UI_TEXT_E_POSITION_ID 35</v>
       </c>
       <c r="F36" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
@@ -8811,7 +8809,7 @@
         <v>#define UI_TEXT_BED_TEMP_ID 36</v>
       </c>
       <c r="F37" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
@@ -8833,7 +8831,7 @@
         <v>#define UI_TEXT_EXTR0_TEMP_ID 37</v>
       </c>
       <c r="F38" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
@@ -8855,7 +8853,7 @@
         <v>#define UI_TEXT_EXTR1_TEMP_ID 38</v>
       </c>
       <c r="F39" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
@@ -8877,7 +8875,7 @@
         <v>#define UI_TEXT_EXTR2_TEMP_ID 39</v>
       </c>
       <c r="F40" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
@@ -8899,7 +8897,7 @@
         <v>#define UI_TEXT_EXTR0_OFF_ID 40</v>
       </c>
       <c r="F41" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
@@ -8921,7 +8919,7 @@
         <v>#define UI_TEXT_EXTR1_OFF_ID 41</v>
       </c>
       <c r="F42" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
@@ -8943,7 +8941,7 @@
         <v>#define UI_TEXT_EXTR2_OFF_ID 42</v>
       </c>
       <c r="F43" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -8965,7 +8963,7 @@
         <v>#define UI_TEXT_EXTR0_SELECT_ID 43</v>
       </c>
       <c r="F44" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
@@ -8987,7 +8985,7 @@
         <v>#define UI_TEXT_EXTR1_SELECT_ID 44</v>
       </c>
       <c r="F45" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -9009,7 +9007,7 @@
         <v>#define UI_TEXT_EXTR2_SELECT_ID 45</v>
       </c>
       <c r="F46" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
@@ -9031,7 +9029,7 @@
         <v>#define UI_TEXT_EXTR_ORIGIN_ID 46</v>
       </c>
       <c r="F47" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -9053,7 +9051,7 @@
         <v>#define UI_TEXT_PRINT_X_ID 47</v>
       </c>
       <c r="F48" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
@@ -9075,7 +9073,7 @@
         <v>#define UI_TEXT_PRINT_Y_ID 48</v>
       </c>
       <c r="F49" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
@@ -9097,7 +9095,7 @@
         <v>#define UI_TEXT_PRINT_Z_ID 49</v>
       </c>
       <c r="F50" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
@@ -9119,7 +9117,7 @@
         <v>#define UI_TEXT_PRINT_Z_DELTA_ID 50</v>
       </c>
       <c r="F51" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
@@ -9141,7 +9139,7 @@
         <v>#define UI_TEXT_MOVE_X_ID 51</v>
       </c>
       <c r="F52" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
@@ -9163,7 +9161,7 @@
         <v>#define UI_TEXT_MOVE_Y_ID 52</v>
       </c>
       <c r="F53" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -9172,7 +9170,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B54" t="s">
         <v>985</v>
@@ -9185,7 +9183,7 @@
         <v>#define UI_TEXT_MOVE_Z_ID 53</v>
       </c>
       <c r="F54" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
@@ -9207,7 +9205,7 @@
         <v>#define UI_TEXT_MOVE_Z_DELTA_ID 54</v>
       </c>
       <c r="F55" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
@@ -9229,7 +9227,7 @@
         <v>#define UI_TEXT_JERK_ID 55</v>
       </c>
       <c r="F56" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
@@ -9251,7 +9249,7 @@
         <v>#define UI_TEXT_ZJERK_ID 56</v>
       </c>
       <c r="F57" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
@@ -9273,7 +9271,7 @@
         <v>#define UI_TEXT_ACCELERATION_ID 57</v>
       </c>
       <c r="F58" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
@@ -9295,7 +9293,7 @@
         <v>#define UI_TEXT_STORE_TO_EEPROM_ID 58</v>
       </c>
       <c r="F59" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
@@ -9317,7 +9315,7 @@
         <v>#define UI_TEXT_LOAD_EEPROM_ID 59</v>
       </c>
       <c r="F60" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
@@ -9339,7 +9337,7 @@
         <v>#define UI_TEXT_DBG_ECHO_ID 60</v>
       </c>
       <c r="F61" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
@@ -9361,7 +9359,7 @@
         <v>#define UI_TEXT_DBG_INFO_ID 61</v>
       </c>
       <c r="F62" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
@@ -9383,7 +9381,7 @@
         <v>#define UI_TEXT_DBG_ERROR_ID 62</v>
       </c>
       <c r="F63" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
@@ -9405,7 +9403,7 @@
         <v>#define UI_TEXT_DBG_DRYRUN_ID 63</v>
       </c>
       <c r="F64" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
@@ -9427,7 +9425,7 @@
         <v>#define UI_TEXT_OPS_OFF_ID 64</v>
       </c>
       <c r="F65" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -9449,7 +9447,7 @@
         <v>#define UI_TEXT_OPS_CLASSIC_ID 65</v>
       </c>
       <c r="F66" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
@@ -9471,7 +9469,7 @@
         <v>#define UI_TEXT_OPS_FAST_ID 66</v>
       </c>
       <c r="F67" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I130" si="3">I66+1</f>
@@ -9493,7 +9491,7 @@
         <v>#define UI_TEXT_OPS_RETRACT_ID 67</v>
       </c>
       <c r="F68" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="I68">
         <f t="shared" si="3"/>
@@ -9515,7 +9513,7 @@
         <v>#define UI_TEXT_OPS_BACKSLASH_ID 68</v>
       </c>
       <c r="F69" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="I69">
         <f t="shared" si="3"/>
@@ -9537,7 +9535,7 @@
         <v>#define UI_TEXT_OPS_MINDIST_ID 69</v>
       </c>
       <c r="F70" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="I70">
         <f t="shared" si="3"/>
@@ -9559,7 +9557,7 @@
         <v>#define UI_TEXT_OPS_MOVE_AFTER_ID 70</v>
       </c>
       <c r="F71" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="I71">
         <f t="shared" si="3"/>
@@ -9581,7 +9579,7 @@
         <v>#define UI_TEXT_ANTI_OOZE_ID 71</v>
       </c>
       <c r="F72" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="I72">
         <f t="shared" si="3"/>
@@ -9603,7 +9601,7 @@
         <v>#define UI_TEXT_PRINT_FILE_ID 72</v>
       </c>
       <c r="F73" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="I73">
         <f t="shared" si="3"/>
@@ -9625,7 +9623,7 @@
         <v>#define UI_TEXT_PAUSE_PRINT_ID 73</v>
       </c>
       <c r="F74" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="I74">
         <f t="shared" si="3"/>
@@ -9647,7 +9645,7 @@
         <v>#define UI_TEXT_CONTINUE_PRINT_ID 74</v>
       </c>
       <c r="F75" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="I75">
         <f t="shared" si="3"/>
@@ -9669,7 +9667,7 @@
         <v>#define UI_TEXT_UNMOUNT_CARD_ID 75</v>
       </c>
       <c r="F76" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="I76">
         <f t="shared" si="3"/>
@@ -9691,7 +9689,7 @@
         <v>#define UI_TEXT_MOUNT_CARD_ID 76</v>
       </c>
       <c r="F77" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="I77">
         <f t="shared" si="3"/>
@@ -9713,7 +9711,7 @@
         <v>#define UI_TEXT_DELETE_FILE_ID 77</v>
       </c>
       <c r="F78" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="I78">
         <f t="shared" si="3"/>
@@ -9735,7 +9733,7 @@
         <v>#define UI_TEXT_FEEDRATE_ID 78</v>
       </c>
       <c r="F79" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="I79">
         <f t="shared" si="3"/>
@@ -9757,7 +9755,7 @@
         <v>#define UI_TEXT_FEED_MAX_X_ID 79</v>
       </c>
       <c r="F80" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="I80">
         <f t="shared" si="3"/>
@@ -9779,7 +9777,7 @@
         <v>#define UI_TEXT_FEED_MAX_Y_ID 80</v>
       </c>
       <c r="F81" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="I81">
         <f t="shared" si="3"/>
@@ -9801,7 +9799,7 @@
         <v>#define UI_TEXT_FEED_MAX_Z_ID 81</v>
       </c>
       <c r="F82" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="I82">
         <f t="shared" si="3"/>
@@ -9823,7 +9821,7 @@
         <v>#define UI_TEXT_FEED_MAX_Z_DELTA_ID 82</v>
       </c>
       <c r="F83" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="I83">
         <f t="shared" si="3"/>
@@ -9845,7 +9843,7 @@
         <v>#define UI_TEXT_FEED_HOME_X_ID 83</v>
       </c>
       <c r="F84" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="I84">
         <f t="shared" si="3"/>
@@ -9867,7 +9865,7 @@
         <v>#define UI_TEXT_FEED_HOME_Y_ID 84</v>
       </c>
       <c r="F85" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="I85">
         <f t="shared" si="3"/>
@@ -9889,7 +9887,7 @@
         <v>#define UI_TEXT_FEED_HOME_Z_ID 85</v>
       </c>
       <c r="F86" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
@@ -9911,7 +9909,7 @@
         <v>#define UI_TEXT_FEED_HOME_Z_DELTA_ID 86</v>
       </c>
       <c r="F87" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="I87">
         <f t="shared" si="3"/>
@@ -9933,7 +9931,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION4A_ID 87</v>
       </c>
       <c r="F88" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
@@ -9955,7 +9953,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION4B_ID 88</v>
       </c>
       <c r="F89" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="I89">
         <f t="shared" si="3"/>
@@ -9977,7 +9975,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION4C_ID 89</v>
       </c>
       <c r="F90" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="I90">
         <f t="shared" si="3"/>
@@ -9999,7 +9997,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION4D_ID 90</v>
       </c>
       <c r="F91" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="I91">
         <f t="shared" si="3"/>
@@ -10021,7 +10019,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION4A_ID 91</v>
       </c>
       <c r="F92" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="I92">
         <f t="shared" si="3"/>
@@ -10043,7 +10041,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION4B_ID 92</v>
       </c>
       <c r="F93" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="I93">
         <f t="shared" si="3"/>
@@ -10065,7 +10063,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION4C_ID 93</v>
       </c>
       <c r="F94" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
@@ -10087,7 +10085,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION4D_ID 94</v>
       </c>
       <c r="F95" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="I95">
         <f t="shared" si="3"/>
@@ -10109,7 +10107,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION4A_ID 95</v>
       </c>
       <c r="F96" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
@@ -10131,7 +10129,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION4B_ID 96</v>
       </c>
       <c r="F97" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="I97">
         <f t="shared" si="3"/>
@@ -10153,7 +10151,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION4C_ID 97</v>
       </c>
       <c r="F98" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="I98">
         <f t="shared" si="3"/>
@@ -10175,7 +10173,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION4D_ID 98</v>
       </c>
       <c r="F99" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="I99">
         <f t="shared" si="3"/>
@@ -10197,7 +10195,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION_FAST4A_ID 99</v>
       </c>
       <c r="F100" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="I100">
         <f t="shared" si="3"/>
@@ -10219,7 +10217,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION_FAST4B_ID 100</v>
       </c>
       <c r="F101" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
@@ -10241,7 +10239,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION_FAST4C_ID 101</v>
       </c>
       <c r="F102" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="I102">
         <f t="shared" si="3"/>
@@ -10263,7 +10261,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION_FAST4D_ID 102</v>
       </c>
       <c r="F103" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="I103">
         <f t="shared" si="3"/>
@@ -10285,7 +10283,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION_FAST4A_ID 103</v>
       </c>
       <c r="F104" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="I104">
         <f t="shared" si="3"/>
@@ -10307,7 +10305,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION_FAST4B_ID 104</v>
       </c>
       <c r="F105" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="I105">
         <f t="shared" si="3"/>
@@ -10329,7 +10327,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION_FAST4C_ID 105</v>
       </c>
       <c r="F106" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="I106">
         <f t="shared" si="3"/>
@@ -10351,7 +10349,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION_FAST4D_ID 106</v>
       </c>
       <c r="F107" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="I107">
         <f t="shared" si="3"/>
@@ -10373,7 +10371,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION_FAST4A_ID 107</v>
       </c>
       <c r="F108" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="I108">
         <f t="shared" si="3"/>
@@ -10395,7 +10393,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION_FAST4B_ID 108</v>
       </c>
       <c r="F109" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="I109">
         <f t="shared" si="3"/>
@@ -10417,7 +10415,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION_FAST4C_ID 109</v>
       </c>
       <c r="F110" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="I110">
         <f t="shared" si="3"/>
@@ -10439,7 +10437,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION_FAST4D_ID 110</v>
       </c>
       <c r="F111" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="I111">
         <f t="shared" si="3"/>
@@ -10461,7 +10459,7 @@
         <v>#define UI_TEXT_ACTION_EPOSITION_FAST2A_ID 111</v>
       </c>
       <c r="F112" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="I112">
         <f t="shared" si="3"/>
@@ -10483,7 +10481,7 @@
         <v>#define UI_TEXT_ACTION_EPOSITION_FAST2B_ID 112</v>
       </c>
       <c r="F113" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="I113">
         <f t="shared" si="3"/>
@@ -10505,7 +10503,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION2A_ID 113</v>
       </c>
       <c r="F114" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="I114">
         <f t="shared" si="3"/>
@@ -10527,7 +10525,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION2B_ID 114</v>
       </c>
       <c r="F115" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="I115">
         <f t="shared" si="3"/>
@@ -10549,7 +10547,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION2A_ID 115</v>
       </c>
       <c r="F116" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="I116">
         <f t="shared" si="3"/>
@@ -10571,7 +10569,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION2B_ID 116</v>
       </c>
       <c r="F117" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="I117">
         <f t="shared" si="3"/>
@@ -10593,7 +10591,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION2A_ID 117</v>
       </c>
       <c r="F118" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="I118">
         <f t="shared" si="3"/>
@@ -10615,7 +10613,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION2B_ID 118</v>
       </c>
       <c r="F119" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="I119">
         <f t="shared" si="3"/>
@@ -10637,7 +10635,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION_FAST2A_ID 119</v>
       </c>
       <c r="F120" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="I120">
         <f t="shared" si="3"/>
@@ -10659,7 +10657,7 @@
         <v>#define UI_TEXT_ACTION_XPOSITION_FAST2B_ID 120</v>
       </c>
       <c r="F121" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="I121">
         <f t="shared" si="3"/>
@@ -10681,7 +10679,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION_FAST2A_ID 121</v>
       </c>
       <c r="F122" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="I122">
         <f t="shared" si="3"/>
@@ -10703,7 +10701,7 @@
         <v>#define UI_TEXT_ACTION_YPOSITION_FAST2B_ID 122</v>
       </c>
       <c r="F123" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="I123">
         <f t="shared" si="3"/>
@@ -10725,7 +10723,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION_FAST2A_ID 123</v>
       </c>
       <c r="F124" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="I124">
         <f t="shared" si="3"/>
@@ -10747,7 +10745,7 @@
         <v>#define UI_TEXT_ACTION_ZPOSITION_FAST2B_ID 124</v>
       </c>
       <c r="F125" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="I125">
         <f t="shared" si="3"/>
@@ -10769,7 +10767,7 @@
         <v>#define UI_TEXT_FANSPEED_ID 125</v>
       </c>
       <c r="F126" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="I126">
         <f t="shared" si="3"/>
@@ -10791,7 +10789,7 @@
         <v>#define UI_TEXT_ACTION_FANSPEED_ID 126</v>
       </c>
       <c r="F127" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="I127">
         <f t="shared" si="3"/>
@@ -10813,7 +10811,7 @@
         <v>#define UI_TEXT_FAN_OFF_ID 127</v>
       </c>
       <c r="F128" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="I128">
         <f t="shared" si="3"/>
@@ -10835,7 +10833,7 @@
         <v>#define UI_TEXT_FAN_25_ID 128</v>
       </c>
       <c r="F129" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="I129">
         <f t="shared" si="3"/>
@@ -10857,7 +10855,7 @@
         <v>#define UI_TEXT_FAN_50_ID 129</v>
       </c>
       <c r="F130" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="I130">
         <f t="shared" si="3"/>
@@ -10879,7 +10877,7 @@
         <v>#define UI_TEXT_FAN_75_ID 130</v>
       </c>
       <c r="F131" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I194" si="5">I130+1</f>
@@ -10901,7 +10899,7 @@
         <v>#define UI_TEXT_FAN_FULL_ID 131</v>
       </c>
       <c r="F132" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="I132">
         <f t="shared" si="5"/>
@@ -10923,7 +10921,7 @@
         <v>#define UI_TEXT_STEPPER_INACTIVE_ID 132</v>
       </c>
       <c r="F133" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="I133">
         <f t="shared" si="5"/>
@@ -10945,7 +10943,7 @@
         <v>#define UI_TEXT_STEPPER_INACTIVE2A_ID 133</v>
       </c>
       <c r="F134" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="I134">
         <f t="shared" si="5"/>
@@ -10967,7 +10965,7 @@
         <v>#define UI_TEXT_STEPPER_INACTIVE2B_ID 134</v>
       </c>
       <c r="F135" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="I135">
         <f t="shared" si="5"/>
@@ -10989,7 +10987,7 @@
         <v>#define UI_TEXT_POWER_INACTIVE_ID 135</v>
       </c>
       <c r="F136" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="I136">
         <f t="shared" si="5"/>
@@ -11011,7 +11009,7 @@
         <v>#define UI_TEXT_POWER_INACTIVE2A_ID 136</v>
       </c>
       <c r="F137" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="I137">
         <f t="shared" si="5"/>
@@ -11033,7 +11031,7 @@
         <v>#define UI_TEXT_POWER_INACTIVE2B_ID 137</v>
       </c>
       <c r="F138" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="I138">
         <f t="shared" si="5"/>
@@ -11055,7 +11053,7 @@
         <v>#define UI_TEXT_GENERAL_ID 138</v>
       </c>
       <c r="F139" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="I139">
         <f t="shared" si="5"/>
@@ -11077,7 +11075,7 @@
         <v>#define UI_TEXT_BAUDRATE_ID 139</v>
       </c>
       <c r="F140" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="I140">
         <f t="shared" si="5"/>
@@ -11099,7 +11097,7 @@
         <v>#define UI_TEXT_EXTR_STEPS_ID 140</v>
       </c>
       <c r="F141" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="I141">
         <f t="shared" si="5"/>
@@ -11121,7 +11119,7 @@
         <v>#define UI_TEXT_EXTR_START_FEED_ID 141</v>
       </c>
       <c r="F142" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="I142">
         <f t="shared" si="5"/>
@@ -11143,7 +11141,7 @@
         <v>#define UI_TEXT_EXTR_MAX_FEED_ID 142</v>
       </c>
       <c r="F143" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="I143">
         <f t="shared" si="5"/>
@@ -11165,7 +11163,7 @@
         <v>#define UI_TEXT_EXTR_ACCEL_ID 143</v>
       </c>
       <c r="F144" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="I144">
         <f t="shared" si="5"/>
@@ -11187,7 +11185,7 @@
         <v>#define UI_TEXT_EXTR_WATCH_ID 144</v>
       </c>
       <c r="F145" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="I145">
         <f t="shared" si="5"/>
@@ -11209,7 +11207,7 @@
         <v>#define UI_TEXT_EXTR_ADVANCE_L_ID 145</v>
       </c>
       <c r="F146" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="I146">
         <f t="shared" si="5"/>
@@ -11231,7 +11229,7 @@
         <v>#define UI_TEXT_EXTR_ADVANCE_K_ID 146</v>
       </c>
       <c r="F147" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="I147">
         <f t="shared" si="5"/>
@@ -11253,7 +11251,7 @@
         <v>#define UI_TEXT_EXTR_MANAGER_ID 147</v>
       </c>
       <c r="F148" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="I148">
         <f t="shared" si="5"/>
@@ -11275,7 +11273,7 @@
         <v>#define UI_TEXT_EXTR_PGAIN_ID 148</v>
       </c>
       <c r="F149" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="I149">
         <f t="shared" si="5"/>
@@ -11297,7 +11295,7 @@
         <v>#define UI_TEXT_EXTR_DEADTIME_ID 149</v>
       </c>
       <c r="F150" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="I150">
         <f t="shared" si="5"/>
@@ -11319,7 +11317,7 @@
         <v>#define UI_TEXT_EXTR_DMAX_DT_ID 150</v>
       </c>
       <c r="F151" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="I151">
         <f t="shared" si="5"/>
@@ -11341,7 +11339,7 @@
         <v>#define UI_TEXT_EXTR_IGAIN_ID 151</v>
       </c>
       <c r="F152" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="I152">
         <f t="shared" si="5"/>
@@ -11363,7 +11361,7 @@
         <v>#define UI_TEXT_EXTR_DGAIN_ID 152</v>
       </c>
       <c r="F153" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="I153">
         <f t="shared" si="5"/>
@@ -11385,7 +11383,7 @@
         <v>#define UI_TEXT_EXTR_DMIN_ID 153</v>
       </c>
       <c r="F154" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="I154">
         <f t="shared" si="5"/>
@@ -11407,7 +11405,7 @@
         <v>#define UI_TEXT_EXTR_DMAX_ID 154</v>
       </c>
       <c r="F155" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="I155">
         <f t="shared" si="5"/>
@@ -11429,7 +11427,7 @@
         <v>#define UI_TEXT_EXTR_PMAX_ID 155</v>
       </c>
       <c r="F156" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="I156">
         <f t="shared" si="5"/>
@@ -11451,7 +11449,7 @@
         <v>#define UI_TEXT_STRING_HM_BANGBANG_ID 156</v>
       </c>
       <c r="F157" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="I157">
         <f t="shared" si="5"/>
@@ -11473,7 +11471,7 @@
         <v>#define UI_TEXT_STRING_HM_PID_ID 157</v>
       </c>
       <c r="F158" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="I158">
         <f t="shared" si="5"/>
@@ -11495,7 +11493,7 @@
         <v>#define UI_TEXT_STRING_ACTION_ID 158</v>
       </c>
       <c r="F159" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="I159">
         <f t="shared" si="5"/>
@@ -11517,7 +11515,7 @@
         <v>#define UI_TEXT_HEATING_EXTRUDER_ID 159</v>
       </c>
       <c r="F160" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="I160">
         <f t="shared" si="5"/>
@@ -11539,7 +11537,7 @@
         <v>#define UI_TEXT_HEATING_BED_ID 160</v>
       </c>
       <c r="F161" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="I161">
         <f t="shared" si="5"/>
@@ -11561,7 +11559,7 @@
         <v>#define UI_TEXT_KILLED_ID 161</v>
       </c>
       <c r="F162" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="I162">
         <f t="shared" si="5"/>
@@ -11583,7 +11581,7 @@
         <v>#define UI_TEXT_STEPPER_DISABLED_ID 162</v>
       </c>
       <c r="F163" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="I163">
         <f t="shared" si="5"/>
@@ -11605,7 +11603,7 @@
         <v>#define UI_TEXT_EEPROM_STOREDA_ID 163</v>
       </c>
       <c r="F164" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="I164">
         <f t="shared" si="5"/>
@@ -11627,7 +11625,7 @@
         <v>#define UI_TEXT_EEPROM_STOREDB_ID 164</v>
       </c>
       <c r="F165" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="I165">
         <f t="shared" si="5"/>
@@ -11649,7 +11647,7 @@
         <v>#define UI_TEXT_EEPROM_LOADEDA_ID 165</v>
       </c>
       <c r="F166" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="I166">
         <f t="shared" si="5"/>
@@ -11671,7 +11669,7 @@
         <v>#define UI_TEXT_EEPROM_LOADEDB_ID 166</v>
       </c>
       <c r="F167" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="I167">
         <f t="shared" si="5"/>
@@ -11693,7 +11691,7 @@
         <v>#define UI_TEXT_UPLOADING_ID 167</v>
       </c>
       <c r="F168" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="I168">
         <f t="shared" si="5"/>
@@ -11715,7 +11713,7 @@
         <v>#define UI_TEXT_PAGE_BUFFER_ID 168</v>
       </c>
       <c r="F169" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="I169">
         <f t="shared" si="5"/>
@@ -11737,7 +11735,7 @@
         <v>#define UI_TEXT_PAGE_EXTRUDER_ID 169</v>
       </c>
       <c r="F170" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="I170">
         <f t="shared" si="5"/>
@@ -11759,7 +11757,7 @@
         <v>#define UI_TEXT_PAGE_EXTRUDER1_ID 170</v>
       </c>
       <c r="F171" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="I171">
         <f t="shared" si="5"/>
@@ -11781,7 +11779,7 @@
         <v>#define UI_TEXT_PAGE_EXTRUDER2_ID 171</v>
       </c>
       <c r="F172" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="I172">
         <f t="shared" si="5"/>
@@ -11790,7 +11788,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B173" t="s">
         <v>1106</v>
@@ -11803,7 +11801,7 @@
         <v>#define UI_TEXT_PAGE_EXTRUDER3_ID 172</v>
       </c>
       <c r="F173" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="I173">
         <f t="shared" si="5"/>
@@ -11825,7 +11823,7 @@
         <v>#define UI_TEXT_PAGE_BED_ID 173</v>
       </c>
       <c r="F174" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="I174">
         <f t="shared" si="5"/>
@@ -11847,7 +11845,7 @@
         <v>#define UI_TEXT_SPEED_MULTIPLY_ID 174</v>
       </c>
       <c r="F175" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="I175">
         <f t="shared" si="5"/>
@@ -11869,7 +11867,7 @@
         <v>#define UI_TEXT_FLOW_MULTIPLY_ID 175</v>
       </c>
       <c r="F176" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="I176">
         <f t="shared" si="5"/>
@@ -11891,7 +11889,7 @@
         <v>#define UI_TEXT_SHOW_MEASUREMENT_ID 176</v>
       </c>
       <c r="F177" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="I177">
         <f t="shared" si="5"/>
@@ -11900,7 +11898,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B178" t="s">
         <v>1111</v>
@@ -11913,7 +11911,7 @@
         <v>#define UI_TEXT_RESET_MEASUREMENT_ID 177</v>
       </c>
       <c r="F178" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="I178">
         <f t="shared" si="5"/>
@@ -11922,7 +11920,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B179" t="s">
         <v>1112</v>
@@ -11935,7 +11933,7 @@
         <v>#define UI_TEXT_SET_MEASURED_ORIGIN_ID 178</v>
       </c>
       <c r="F179" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="I179">
         <f t="shared" si="5"/>
@@ -11944,7 +11942,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B180" t="s">
         <v>1113</v>
@@ -11957,7 +11955,7 @@
         <v>#define UI_TEXT_ZCALIB_ID 179</v>
       </c>
       <c r="F180" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="I180">
         <f t="shared" si="5"/>
@@ -11966,7 +11964,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B181" t="s">
         <v>1114</v>
@@ -11979,7 +11977,7 @@
         <v>#define UI_TEXT_SET_P1_ID 180</v>
       </c>
       <c r="F181" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="I181">
         <f t="shared" si="5"/>
@@ -11988,7 +11986,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B182" t="s">
         <v>1115</v>
@@ -12001,7 +11999,7 @@
         <v>#define UI_TEXT_SET_P2_ID 181</v>
       </c>
       <c r="F182" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="I182">
         <f t="shared" si="5"/>
@@ -12023,7 +12021,7 @@
         <v>#define UI_TEXT_SET_P3_ID 182</v>
       </c>
       <c r="F183" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="I183">
         <f t="shared" si="5"/>
@@ -12045,7 +12043,7 @@
         <v>#define UI_TEXT_CALCULATE_LEVELING_ID 183</v>
       </c>
       <c r="F184" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="I184">
         <f t="shared" si="5"/>
@@ -12067,7 +12065,7 @@
         <v>#define UI_TEXT_LEVEL_ID 184</v>
       </c>
       <c r="F185" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="I185">
         <f t="shared" si="5"/>
@@ -12089,7 +12087,7 @@
         <v>#define UI_TEXT_EXTR_WAIT_RETRACT_TEMP_ID 185</v>
       </c>
       <c r="F186" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="I186">
         <f t="shared" si="5"/>
@@ -12111,7 +12109,7 @@
         <v>#define UI_TEXT_EXTR_WAIT_RETRACT_UNITS_ID 186</v>
       </c>
       <c r="F187" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="I187">
         <f t="shared" si="5"/>
@@ -12133,7 +12131,7 @@
         <v>#define UI_TEXT_SD_REMOVED_ID 187</v>
       </c>
       <c r="F188" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="I188">
         <f t="shared" si="5"/>
@@ -12155,7 +12153,7 @@
         <v>#define UI_TEXT_SD_INSERTED_ID 188</v>
       </c>
       <c r="F189" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="I189">
         <f t="shared" si="5"/>
@@ -12177,7 +12175,7 @@
         <v>#define UI_TEXT_PRINTER_READY_ID 189</v>
       </c>
       <c r="F190" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="I190">
         <f t="shared" si="5"/>
@@ -12199,7 +12197,7 @@
         <v>#define UI_TEXT_PRINTTIME_DAYS_ID 190</v>
       </c>
       <c r="F191" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="I191">
         <f t="shared" si="5"/>
@@ -12221,7 +12219,7 @@
         <v>#define UI_TEXT_PRINTTIME_HOURS_ID 191</v>
       </c>
       <c r="F192" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="I192">
         <f t="shared" si="5"/>
@@ -12243,7 +12241,7 @@
         <v>#define UI_TEXT_PRINTTIME_MINUTES_ID 192</v>
       </c>
       <c r="F193" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="I193">
         <f t="shared" si="5"/>
@@ -12252,7 +12250,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B194" t="s">
         <v>1127</v>
@@ -12265,7 +12263,7 @@
         <v>#define UI_TEXT_PRINT_TIME_ID 193</v>
       </c>
       <c r="F194" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="I194">
         <f t="shared" si="5"/>
@@ -12287,7 +12285,7 @@
         <v>#define UI_TEXT_PRINT_FILAMENT_ID 194</v>
       </c>
       <c r="F195" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="I195">
         <f t="shared" ref="I195:I258" si="7">I194+1</f>
@@ -12309,7 +12307,7 @@
         <v>#define UI_TEXT_PRINTED_ID 195</v>
       </c>
       <c r="F196" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="I196">
         <f t="shared" si="7"/>
@@ -12331,7 +12329,7 @@
         <v>#define UI_TEXT_POWER_ID 196</v>
       </c>
       <c r="F197" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="I197">
         <f t="shared" si="7"/>
@@ -12353,7 +12351,7 @@
         <v>#define UI_TEXT_STRING_HM_DEADTIME_ID 197</v>
       </c>
       <c r="F198" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="I198">
         <f t="shared" si="7"/>
@@ -12375,7 +12373,7 @@
         <v>#define UI_TEXT_STRING_HM_SLOWBANG_ID 198</v>
       </c>
       <c r="F199" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="I199">
         <f t="shared" si="7"/>
@@ -12397,7 +12395,7 @@
         <v>#define UI_TEXT_STOP_PRINT_ID 199</v>
       </c>
       <c r="F200" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="I200">
         <f t="shared" si="7"/>
@@ -12419,7 +12417,7 @@
         <v>#define UI_TEXT_Z_BABYSTEPPING_ID 200</v>
       </c>
       <c r="F201" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="I201">
         <f t="shared" si="7"/>
@@ -12441,7 +12439,7 @@
         <v>#define UI_TEXT_CHANGE_FILAMENT_ID 201</v>
       </c>
       <c r="F202" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="I202">
         <f t="shared" si="7"/>
@@ -12463,7 +12461,7 @@
         <v>#define UI_TEXT_WIZ_CH_FILAMENT1_ID 202</v>
       </c>
       <c r="F203" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="I203">
         <f t="shared" si="7"/>
@@ -12485,7 +12483,7 @@
         <v>#define UI_TEXT_WIZ_CH_FILAMENT2_ID 203</v>
       </c>
       <c r="F204" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="I204">
         <f t="shared" si="7"/>
@@ -12507,7 +12505,7 @@
         <v>#define UI_TEXT_WIZ_CH_FILAMENT3_ID 204</v>
       </c>
       <c r="F205" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="I205">
         <f t="shared" si="7"/>
@@ -12529,7 +12527,7 @@
         <v>#define UI_TEXT_CLICK_DONE_ID 205</v>
       </c>
       <c r="F206" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="I206">
         <f t="shared" si="7"/>
@@ -12551,7 +12549,7 @@
         <v>#define UI_TEXT_AUTOLEVEL_ONOFF_ID 206</v>
       </c>
       <c r="F207" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="I207">
         <f t="shared" si="7"/>
@@ -12573,7 +12571,7 @@
         <v>#define UI_TEXT_SERVOPOS_ID 207</v>
       </c>
       <c r="F208" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="I208">
         <f t="shared" si="7"/>
@@ -12595,7 +12593,7 @@
         <v>#define UI_TEXT_IGNORE_M106_ID 208</v>
       </c>
       <c r="F209" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="I209">
         <f t="shared" si="7"/>
@@ -12617,7 +12615,7 @@
         <v>#define UI_TEXT_WIZ_REHEAT1_ID 209</v>
       </c>
       <c r="F210" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="I210">
         <f t="shared" si="7"/>
@@ -12639,7 +12637,7 @@
         <v>#define UI_TEXT_WIZ_REHEAT2_ID 210</v>
       </c>
       <c r="F211" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="I211">
         <f t="shared" si="7"/>
@@ -12661,7 +12659,7 @@
         <v>#define UI_TEXT_WIZ_WAITTEMP1_ID 211</v>
       </c>
       <c r="F212" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="I212">
         <f t="shared" si="7"/>
@@ -12683,7 +12681,7 @@
         <v>#define UI_TEXT_WIZ_WAITTEMP2_ID 212</v>
       </c>
       <c r="F213" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="I213">
         <f t="shared" si="7"/>
@@ -12705,7 +12703,7 @@
         <v>#define UI_TEXT_EXTRUDER_JAM_ID 213</v>
       </c>
       <c r="F214" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="I214">
         <f t="shared" si="7"/>
@@ -12727,7 +12725,7 @@
         <v>#define UI_TEXT_STANDBY_ID 214</v>
       </c>
       <c r="F215" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="I215">
         <f t="shared" si="7"/>
@@ -12749,7 +12747,7 @@
         <v>#define UI_TEXT_BED_COATING_ID 215</v>
       </c>
       <c r="F216" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="I216">
         <f t="shared" si="7"/>
@@ -12771,7 +12769,7 @@
         <v>#define UI_TEXT_BED_COATING_SET1_ID 216</v>
       </c>
       <c r="F217" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="I217">
         <f t="shared" si="7"/>
@@ -12793,7 +12791,7 @@
         <v>#define UI_TEXT_BED_COATING_SET2_ID 217</v>
       </c>
       <c r="F218" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="I218">
         <f t="shared" si="7"/>
@@ -12815,7 +12813,7 @@
         <v>#define UI_TEXT_NOCOATING_ID 218</v>
       </c>
       <c r="F219" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="I219">
         <f t="shared" si="7"/>
@@ -12837,7 +12835,7 @@
         <v>#define UI_TEXT_BUILDTAK_ID 219</v>
       </c>
       <c r="F220" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="I220">
         <f t="shared" si="7"/>
@@ -12859,7 +12857,7 @@
         <v>#define UI_TEXT_KAPTON_ID 220</v>
       </c>
       <c r="F221" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="I221">
         <f t="shared" si="7"/>
@@ -12881,7 +12879,7 @@
         <v>#define UI_TEXT_BLUETAPE_ID 221</v>
       </c>
       <c r="F222" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="I222">
         <f t="shared" si="7"/>
@@ -12903,7 +12901,7 @@
         <v>#define UI_TEXT_PETTAPE_ID 222</v>
       </c>
       <c r="F223" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="I223">
         <f t="shared" si="7"/>
@@ -12925,7 +12923,7 @@
         <v>#define UI_TEXT_GLUESTICK_ID 223</v>
       </c>
       <c r="F224" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="I224">
         <f t="shared" si="7"/>
@@ -12947,7 +12945,7 @@
         <v>#define UI_TEXT_CUSTOM_ID 224</v>
       </c>
       <c r="F225" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="I225">
         <f t="shared" si="7"/>
@@ -12969,7 +12967,7 @@
         <v>#define UI_TEXT_COATING_CUSTOM_ID 225</v>
       </c>
       <c r="F226" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="I226">
         <f t="shared" si="7"/>
@@ -12991,7 +12989,7 @@
         <v>#define UI_TEXT_LANGUAGE_ID 226</v>
       </c>
       <c r="F227" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="I227">
         <f t="shared" si="7"/>
@@ -13013,7 +13011,7 @@
         <v>#define UI_TEXT_MAINPAGE6_1_ID 227</v>
       </c>
       <c r="F228" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="I228">
         <f t="shared" si="7"/>
@@ -13035,7 +13033,7 @@
         <v>#define UI_TEXT_MAINPAGE6_2_ID 228</v>
       </c>
       <c r="F229" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="I229">
         <f t="shared" si="7"/>
@@ -13057,7 +13055,7 @@
         <v>#define UI_TEXT_MAINPAGE6_3_ID 229</v>
       </c>
       <c r="F230" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="I230">
         <f t="shared" si="7"/>
@@ -13079,7 +13077,7 @@
         <v>#define UI_TEXT_MAINPAGE6_4_ID 230</v>
       </c>
       <c r="F231" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="I231">
         <f t="shared" si="7"/>
@@ -13101,7 +13099,7 @@
         <v>#define UI_TEXT_MAINPAGE6_5_ID 231</v>
       </c>
       <c r="F232" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="I232">
         <f t="shared" si="7"/>
@@ -13123,7 +13121,7 @@
         <v>#define UI_TEXT_MAINPAGE6_6_ID 232</v>
       </c>
       <c r="F233" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="I233">
         <f t="shared" si="7"/>
@@ -13145,7 +13143,7 @@
         <v>#define UI_TEXT_MAINPAGE_TEMP_BED_ID 233</v>
       </c>
       <c r="F234" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="I234">
         <f t="shared" si="7"/>
@@ -13167,7 +13165,7 @@
         <v>#define UI_TEXT_MAINPAGE_BED_ID 234</v>
       </c>
       <c r="F235" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="I235">
         <f t="shared" si="7"/>
@@ -13189,7 +13187,7 @@
         <v>#define UI_TEXT_MAINPAGE_Z_BUF_ID 235</v>
       </c>
       <c r="F236" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I236">
         <f t="shared" si="7"/>
@@ -13211,7 +13209,7 @@
         <v>#define UI_TEXT_MAINPAGE_MUL_EUSAGE_ID 236</v>
       </c>
       <c r="F237" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I237">
         <f t="shared" si="7"/>
@@ -13233,7 +13231,7 @@
         <v>#define UI_TEXT_MAINPAGE_XY_ID 237</v>
       </c>
       <c r="F238" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="I238">
         <f t="shared" si="7"/>
@@ -13255,7 +13253,7 @@
         <v>#define UI_TEXT_PRINT_TIME_VALUE_ID 238</v>
       </c>
       <c r="F239" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I239">
         <f t="shared" si="7"/>
@@ -13277,7 +13275,7 @@
         <v>#define UI_TEXT_PRINT_FILAMENT_VALUE_ID 239</v>
       </c>
       <c r="F240" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="I240">
         <f t="shared" si="7"/>
@@ -13299,7 +13297,7 @@
         <v>#define UI_TEXT_METER_PRINTED_ID 240</v>
       </c>
       <c r="F241" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I241">
         <f t="shared" si="7"/>
@@ -13321,7 +13319,7 @@
         <v>#define UI_TEXT_STATUS_ID 241</v>
       </c>
       <c r="F242" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="I242">
         <f t="shared" si="7"/>
@@ -13343,7 +13341,7 @@
         <v>#define UI_TEXT_EMPTY_ID 242</v>
       </c>
       <c r="F243" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="I243">
         <f t="shared" si="7"/>
@@ -13365,7 +13363,7 @@
         <v>#define UI_TEXT_TEMP_SET_ID 243</v>
       </c>
       <c r="F244" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="I244">
         <f t="shared" si="7"/>
@@ -13387,7 +13385,7 @@
         <v>#define UI_TEXT_CURRENT_TEMP_ID 244</v>
       </c>
       <c r="F245" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="I245">
         <f t="shared" si="7"/>
@@ -13409,7 +13407,7 @@
         <v>#define UI_TEXT_COATING_THICKNESS_ID 245</v>
       </c>
       <c r="F246" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="I246">
         <f t="shared" si="7"/>
@@ -13431,7 +13429,7 @@
         <v>#define UI_TEXT_EXTR3_TEMP_ID 246</v>
       </c>
       <c r="F247" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="I247">
         <f t="shared" si="7"/>
@@ -13453,7 +13451,7 @@
         <v>#define UI_TEXT_EXTR4_TEMP_ID 247</v>
       </c>
       <c r="F248" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="I248">
         <f t="shared" si="7"/>
@@ -13475,7 +13473,7 @@
         <v>#define UI_TEXT_EXTR5_TEMP_ID 248</v>
       </c>
       <c r="F249" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="I249">
         <f t="shared" si="7"/>
@@ -13497,7 +13495,7 @@
         <v>#define UI_TEXT_EXTR3_OFF_ID 249</v>
       </c>
       <c r="F250" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="I250">
         <f t="shared" si="7"/>
@@ -13519,7 +13517,7 @@
         <v>#define UI_TEXT_EXTR4_OFF_ID 250</v>
       </c>
       <c r="F251" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="I251">
         <f t="shared" si="7"/>
@@ -13541,7 +13539,7 @@
         <v>#define UI_TEXT_EXTR5_OFF_ID 251</v>
       </c>
       <c r="F252" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="I252">
         <f t="shared" si="7"/>
@@ -13563,7 +13561,7 @@
         <v>#define UI_TEXT_EXTR3_SELECT_ID 252</v>
       </c>
       <c r="F253" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="I253">
         <f t="shared" si="7"/>
@@ -13585,7 +13583,7 @@
         <v>#define UI_TEXT_EXTR4_SELECT_ID 253</v>
       </c>
       <c r="F254" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="I254">
         <f t="shared" si="7"/>
@@ -13607,7 +13605,7 @@
         <v>#define UI_TEXT_EXTR5_SELECT_ID 254</v>
       </c>
       <c r="F255" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="I255">
         <f t="shared" si="7"/>
@@ -13629,7 +13627,7 @@
         <v>#define UI_TEXT_DITTO_0_ID 255</v>
       </c>
       <c r="F256" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="I256">
         <f t="shared" si="7"/>
@@ -13651,7 +13649,7 @@
         <v>#define UI_TEXT_DITTO_1_ID 256</v>
       </c>
       <c r="F257" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="I257">
         <f t="shared" si="7"/>
@@ -13673,7 +13671,7 @@
         <v>#define UI_TEXT_DITTO_2_ID 257</v>
       </c>
       <c r="F258" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="I258">
         <f t="shared" si="7"/>
@@ -13695,7 +13693,7 @@
         <v>#define UI_TEXT_DITTO_3_ID 258</v>
       </c>
       <c r="F259" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="I259">
         <f t="shared" ref="I259:I322" si="9">I258+1</f>
@@ -13717,7 +13715,7 @@
         <v>#define UI_TEXT_ZPROBE_HEIGHT_ID 259</v>
       </c>
       <c r="F260" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="I260">
         <f t="shared" si="9"/>
@@ -13739,7 +13737,7 @@
         <v>#define UI_TEXT_OFFSETS_ID 260</v>
       </c>
       <c r="F261" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="I261">
         <f t="shared" si="9"/>
@@ -13761,7 +13759,7 @@
         <v>#define UI_TEXT_X_OFFSET_ID 261</v>
       </c>
       <c r="F262" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="I262">
         <f t="shared" si="9"/>
@@ -13783,7 +13781,7 @@
         <v>#define UI_TEXT_Y_OFFSET_ID 262</v>
       </c>
       <c r="F263" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="I263">
         <f t="shared" si="9"/>
@@ -13798,14 +13796,14 @@
         <v>1197</v>
       </c>
       <c r="C264" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="8"/>
         <v>#define UI_TEXT_Z_OFFSET_ID 263</v>
       </c>
       <c r="F264" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="I264">
         <f t="shared" si="9"/>
@@ -13817,10 +13815,10 @@
         <v>129</v>
       </c>
       <c r="B265" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C265" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="8"/>
@@ -13839,17 +13837,17 @@
         <v>130</v>
       </c>
       <c r="B266" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C266" t="s">
-        <v>1751</v>
+        <v>1754</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1754</v>
       </c>
       <c r="D266" t="str">
         <f t="shared" si="8"/>
         <v>#define UI_TEXT_UNLOAD_FILAMENT_ID 265</v>
       </c>
       <c r="F266" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="I266">
         <f t="shared" si="9"/>
@@ -13861,17 +13859,17 @@
         <v>131</v>
       </c>
       <c r="B267" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C267" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="8"/>
         <v>#define UI_TEXT_FIL_SENSOR_ONOFF_ID 266</v>
       </c>
       <c r="F267" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="I267">
         <f t="shared" si="9"/>
@@ -13883,17 +13881,17 @@
         <v>132</v>
       </c>
       <c r="B268" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C268" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="8"/>
         <v>#define UI_TEXT_CLEANING_DRIPBOX_ID 267</v>
       </c>
       <c r="F268" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="I268">
         <f t="shared" si="9"/>
@@ -13908,14 +13906,14 @@
         <v>1757</v>
       </c>
       <c r="C269" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="8"/>
         <v>#define UI_TEXT_CLEAN_DRIPBOX_ID 268</v>
       </c>
       <c r="F269" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="I269">
         <f t="shared" si="9"/>
@@ -13927,7 +13925,7 @@
         <v>134</v>
       </c>
       <c r="B270" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C270" t="s">
         <v>1624</v>
@@ -13937,7 +13935,7 @@
         <v>#define UI_TEXT_CLEAN_DRIPBOX_3_ID 269</v>
       </c>
       <c r="F270" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="I270">
         <f t="shared" si="9"/>
@@ -13959,7 +13957,7 @@
         <v>#define UI_TEXT_EXTR_XOFF_ID 270</v>
       </c>
       <c r="F271" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="I271">
         <f t="shared" si="9"/>
@@ -13981,7 +13979,7 @@
         <v>#define UI_TEXT_EXTR_YOFF_ID 271</v>
       </c>
       <c r="F272" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="I272">
         <f t="shared" si="9"/>
@@ -13993,7 +13991,7 @@
         <v>137</v>
       </c>
       <c r="B273" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C273" t="s">
         <v>1628</v>
@@ -14003,7 +14001,7 @@
         <v>#define UI_TEXT_LOAD_RIGHT_FILAMENT_ID 272</v>
       </c>
       <c r="F273" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="I273">
         <f t="shared" si="9"/>
@@ -14015,7 +14013,7 @@
         <v>138</v>
       </c>
       <c r="B274" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C274" t="s">
         <v>1629</v>
@@ -14025,7 +14023,7 @@
         <v>#define UI_TEXT_UNLOAD_RIGHT_FILAMENT_ID 273</v>
       </c>
       <c r="F274" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="I274">
         <f t="shared" si="9"/>
@@ -14037,7 +14035,7 @@
         <v>139</v>
       </c>
       <c r="B275" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C275" t="s">
         <v>1630</v>
@@ -14047,7 +14045,7 @@
         <v>#define UI_TEXT_LOAD_LEFT_FILAMENT_ID 274</v>
       </c>
       <c r="F275" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="I275">
         <f t="shared" si="9"/>
@@ -14059,7 +14057,7 @@
         <v>140</v>
       </c>
       <c r="B276" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C276" t="s">
         <v>1631</v>
@@ -14069,7 +14067,7 @@
         <v>#define UI_TEXT_UNLOAD_LEFT_FILAMENT_ID 275</v>
       </c>
       <c r="F276" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="I276">
         <f t="shared" si="9"/>
@@ -14081,7 +14079,7 @@
         <v>141</v>
       </c>
       <c r="B277" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C277" t="s">
         <v>1632</v>
@@ -14091,7 +14089,7 @@
         <v>#define UI_TEXT_FEED_LOADING_FILAMENT_ID 276</v>
       </c>
       <c r="F277" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="I277">
         <f t="shared" si="9"/>
@@ -14103,7 +14101,7 @@
         <v>142</v>
       </c>
       <c r="B278" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C278" t="s">
         <v>1633</v>
@@ -14113,7 +14111,7 @@
         <v>#define UI_TEXT_FEED_UNLOADING_FILAMENT_ID 277</v>
       </c>
       <c r="F278" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="I278">
         <f t="shared" si="9"/>
@@ -14125,17 +14123,17 @@
         <v>143</v>
       </c>
       <c r="B279" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C279" t="s">
         <v>1894</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1895</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="8"/>
         <v>#define UI_TEXT_LOADING_UNLOADING_DISTANCE_ID 278</v>
       </c>
       <c r="F279" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="I279">
         <f t="shared" si="9"/>
@@ -14147,7 +14145,7 @@
         <v>144</v>
       </c>
       <c r="B280" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C280" t="s">
         <v>1634</v>
@@ -14157,7 +14155,7 @@
         <v>#define UI_TEXT_BED_DOWN_ID 279</v>
       </c>
       <c r="F280" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="I280">
         <f t="shared" si="9"/>
@@ -14169,7 +14167,7 @@
         <v>145</v>
       </c>
       <c r="B281" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C281" t="s">
         <v>1635</v>
@@ -14179,7 +14177,7 @@
         <v>#define UI_TEXT_WIFI_ONOFF_ID 280</v>
       </c>
       <c r="F281" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="I281">
         <f t="shared" si="9"/>
@@ -14191,7 +14189,7 @@
         <v>146</v>
       </c>
       <c r="B282" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C282" t="s">
         <v>1636</v>
@@ -14201,7 +14199,7 @@
         <v>#define UI_TEXT_REDO_ACTION_ID 281</v>
       </c>
       <c r="F282" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="I282">
         <f t="shared" si="9"/>
@@ -14213,7 +14211,7 @@
         <v>147</v>
       </c>
       <c r="B283" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C283" t="s">
         <v>1637</v>
@@ -14223,7 +14221,7 @@
         <v>#define UI_TEXT_X_LENGTH_ID 282</v>
       </c>
       <c r="F283" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="I283">
         <f t="shared" si="9"/>
@@ -14235,7 +14233,7 @@
         <v>148</v>
       </c>
       <c r="B284" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C284" t="s">
         <v>1638</v>
@@ -14245,7 +14243,7 @@
         <v>#define UI_TEXT_Y_LENGTH_ID 283</v>
       </c>
       <c r="F284" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="I284">
         <f t="shared" si="9"/>
@@ -14257,7 +14255,7 @@
         <v>149</v>
       </c>
       <c r="B285" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C285" t="s">
         <v>1639</v>
@@ -14267,7 +14265,7 @@
         <v>#define UI_TEXT_Z_LENGTH_ID 284</v>
       </c>
       <c r="F285" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="I285">
         <f t="shared" si="9"/>
@@ -14279,7 +14277,7 @@
         <v>150</v>
       </c>
       <c r="B286" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C286" t="s">
         <v>1640</v>
@@ -14289,7 +14287,7 @@
         <v>#define UI_TEXT_EXT_TEMP_ABS_ID 285</v>
       </c>
       <c r="F286" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="I286">
         <f t="shared" si="9"/>
@@ -14301,7 +14299,7 @@
         <v>151</v>
       </c>
       <c r="B287" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C287" t="s">
         <v>1641</v>
@@ -14311,7 +14309,7 @@
         <v>#define UI_TEXT_EXT_TEMP_PLA_ID 286</v>
       </c>
       <c r="F287" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="I287">
         <f t="shared" si="9"/>
@@ -14323,7 +14321,7 @@
         <v>152</v>
       </c>
       <c r="B288" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C288" t="s">
         <v>1642</v>
@@ -14333,7 +14331,7 @@
         <v>#define UI_TEXT_BED_TEMP_ABS_ID 287</v>
       </c>
       <c r="F288" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="I288">
         <f t="shared" si="9"/>
@@ -14345,7 +14343,7 @@
         <v>267</v>
       </c>
       <c r="B289" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C289" t="s">
         <v>1643</v>
@@ -14355,7 +14353,7 @@
         <v>#define UI_TEXT_BED_TEMP_PLA_ID 288</v>
       </c>
       <c r="F289" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="I289">
         <f t="shared" si="9"/>
@@ -14367,7 +14365,7 @@
         <v>268</v>
       </c>
       <c r="B290" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C290" t="s">
         <v>1644</v>
@@ -14377,7 +14375,7 @@
         <v>#define UI_TEXT_ALERT_NO_FILAMENTA_ID 289</v>
       </c>
       <c r="F290" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="I290">
         <f t="shared" si="9"/>
@@ -14389,7 +14387,7 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C291" t="s">
         <v>1645</v>
@@ -14399,7 +14397,7 @@
         <v>#define UI_TEXT_ALERT_NO_FILAMENTB_ID 290</v>
       </c>
       <c r="F291" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="I291">
         <f t="shared" si="9"/>
@@ -14411,7 +14409,7 @@
         <v>269</v>
       </c>
       <c r="B292" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C292" t="s">
         <v>1646</v>
@@ -14421,7 +14419,7 @@
         <v>#define UI_TEXT_ALERT_NO_FILAMENTC_ID 291</v>
       </c>
       <c r="F292" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="I292">
         <f t="shared" si="9"/>
@@ -14433,7 +14431,7 @@
         <v>270</v>
       </c>
       <c r="B293" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C293" t="s">
         <v>1647</v>
@@ -14443,7 +14441,7 @@
         <v>#define UI_TEXT_ALERT_NO_FILAMENTD_ID 292</v>
       </c>
       <c r="F293" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="I293">
         <f t="shared" si="9"/>
@@ -14455,7 +14453,7 @@
         <v>271</v>
       </c>
       <c r="B294" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C294" t="s">
         <v>1648</v>
@@ -14465,7 +14463,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_1A_ID 293</v>
       </c>
       <c r="F294" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="I294">
         <f t="shared" si="9"/>
@@ -14477,7 +14475,7 @@
         <v>272</v>
       </c>
       <c r="B295" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C295" t="s">
         <v>1649</v>
@@ -14487,7 +14485,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_1B_ID 294</v>
       </c>
       <c r="F295" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="I295">
         <f t="shared" si="9"/>
@@ -14499,7 +14497,7 @@
         <v>273</v>
       </c>
       <c r="B296" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C296" t="s">
         <v>1650</v>
@@ -14509,7 +14507,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_1C_ID 295</v>
       </c>
       <c r="F296" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="I296">
         <f t="shared" si="9"/>
@@ -14521,7 +14519,7 @@
         <v>274</v>
       </c>
       <c r="B297" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C297" t="s">
         <v>1651</v>
@@ -14531,7 +14529,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_1D_ID 296</v>
       </c>
       <c r="F297" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="I297">
         <f t="shared" si="9"/>
@@ -14543,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C298" t="s">
         <v>1652</v>
@@ -14553,7 +14551,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_2A_ID 297</v>
       </c>
       <c r="F298" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="I298">
         <f t="shared" si="9"/>
@@ -14565,7 +14563,7 @@
         <v>279</v>
       </c>
       <c r="B299" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C299" t="s">
         <v>1653</v>
@@ -14575,7 +14573,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_2B_ID 298</v>
       </c>
       <c r="F299" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="I299">
         <f t="shared" si="9"/>
@@ -14587,7 +14585,7 @@
         <v>280</v>
       </c>
       <c r="B300" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C300" t="s">
         <v>1654</v>
@@ -14597,7 +14595,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_2C_ID 299</v>
       </c>
       <c r="F300" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="I300">
         <f t="shared" si="9"/>
@@ -14609,7 +14607,7 @@
         <v>281</v>
       </c>
       <c r="B301" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C301" t="s">
         <v>1655</v>
@@ -14619,7 +14617,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_2D_ID 300</v>
       </c>
       <c r="F301" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="I301">
         <f t="shared" si="9"/>
@@ -14631,7 +14629,7 @@
         <v>282</v>
       </c>
       <c r="B302" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C302" t="s">
         <v>1656</v>
@@ -14641,7 +14639,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_3A_ID 301</v>
       </c>
       <c r="F302" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="I302">
         <f t="shared" si="9"/>
@@ -14653,7 +14651,7 @@
         <v>283</v>
       </c>
       <c r="B303" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C303" t="s">
         <v>1657</v>
@@ -14663,7 +14661,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_3B_ID 302</v>
       </c>
       <c r="F303" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="I303">
         <f t="shared" si="9"/>
@@ -14675,7 +14673,7 @@
         <v>284</v>
       </c>
       <c r="B304" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C304" t="s">
         <v>1658</v>
@@ -14685,7 +14683,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_3C_ID 303</v>
       </c>
       <c r="F304" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="I304">
         <f t="shared" si="9"/>
@@ -14697,7 +14695,7 @@
         <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C305" t="s">
         <v>1659</v>
@@ -14707,7 +14705,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_3D_ID 304</v>
       </c>
       <c r="F305" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="I305">
         <f t="shared" si="9"/>
@@ -14719,7 +14717,7 @@
         <v>275</v>
       </c>
       <c r="B306" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C306" t="s">
         <v>1660</v>
@@ -14729,7 +14727,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_4A_ID 305</v>
       </c>
       <c r="F306" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="I306">
         <f t="shared" si="9"/>
@@ -14741,7 +14739,7 @@
         <v>276</v>
       </c>
       <c r="B307" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C307" t="s">
         <v>1661</v>
@@ -14751,7 +14749,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_4B_ID 306</v>
       </c>
       <c r="F307" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="I307">
         <f t="shared" si="9"/>
@@ -14763,7 +14761,7 @@
         <v>277</v>
       </c>
       <c r="B308" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C308" t="s">
         <v>1662</v>
@@ -14773,7 +14771,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_4C_ID 307</v>
       </c>
       <c r="F308" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="I308">
         <f t="shared" si="9"/>
@@ -14785,7 +14783,7 @@
         <v>278</v>
       </c>
       <c r="B309" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C309" t="s">
         <v>1663</v>
@@ -14795,7 +14793,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_4D_ID 308</v>
       </c>
       <c r="F309" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="I309">
         <f t="shared" si="9"/>
@@ -14807,7 +14805,7 @@
         <v>285</v>
       </c>
       <c r="B310" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C310" t="s">
         <v>1664</v>
@@ -14817,7 +14815,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_5A_ID 309</v>
       </c>
       <c r="F310" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="I310">
         <f t="shared" si="9"/>
@@ -14829,7 +14827,7 @@
         <v>286</v>
       </c>
       <c r="B311" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C311" t="s">
         <v>1665</v>
@@ -14839,7 +14837,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_5B_ID 310</v>
       </c>
       <c r="F311" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="I311">
         <f t="shared" si="9"/>
@@ -14851,7 +14849,7 @@
         <v>287</v>
       </c>
       <c r="B312" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C312" t="s">
         <v>1666</v>
@@ -14861,7 +14859,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_5C_ID 311</v>
       </c>
       <c r="F312" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="I312">
         <f t="shared" si="9"/>
@@ -14873,7 +14871,7 @@
         <v>288</v>
       </c>
       <c r="B313" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C313" t="s">
         <v>1667</v>
@@ -14883,7 +14881,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_5D_ID 312</v>
       </c>
       <c r="F313" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="I313">
         <f t="shared" si="9"/>
@@ -14895,7 +14893,7 @@
         <v>289</v>
       </c>
       <c r="B314" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C314" t="s">
         <v>1668</v>
@@ -14905,7 +14903,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_6A_ID 313</v>
       </c>
       <c r="F314" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="I314">
         <f t="shared" si="9"/>
@@ -14917,7 +14915,7 @@
         <v>290</v>
       </c>
       <c r="B315" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C315" t="s">
         <v>1669</v>
@@ -14927,7 +14925,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_6B_ID 314</v>
       </c>
       <c r="F315" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="I315">
         <f t="shared" si="9"/>
@@ -14939,7 +14937,7 @@
         <v>291</v>
       </c>
       <c r="B316" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C316" t="s">
         <v>1670</v>
@@ -14949,7 +14947,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_6C_ID 315</v>
       </c>
       <c r="F316" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="I316">
         <f t="shared" si="9"/>
@@ -14961,7 +14959,7 @@
         <v>292</v>
       </c>
       <c r="B317" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C317" t="s">
         <v>1671</v>
@@ -14971,7 +14969,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_6D_ID 316</v>
       </c>
       <c r="F317" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="I317">
         <f t="shared" si="9"/>
@@ -14983,7 +14981,7 @@
         <v>293</v>
       </c>
       <c r="B318" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C318" t="s">
         <v>1672</v>
@@ -14993,7 +14991,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_7A_ID 317</v>
       </c>
       <c r="F318" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="I318">
         <f t="shared" si="9"/>
@@ -15002,10 +15000,10 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B319" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C319" t="s">
         <v>1673</v>
@@ -15015,7 +15013,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_7B_ID 318</v>
       </c>
       <c r="F319" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="I319">
         <f t="shared" si="9"/>
@@ -15024,10 +15022,10 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B320" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C320" t="s">
         <v>1674</v>
@@ -15037,7 +15035,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_7C_ID 319</v>
       </c>
       <c r="F320" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="I320">
         <f t="shared" si="9"/>
@@ -15046,10 +15044,10 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B321" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C321" t="s">
         <v>1675</v>
@@ -15059,7 +15057,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_7D_ID 320</v>
       </c>
       <c r="F321" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="I321">
         <f t="shared" si="9"/>
@@ -15068,10 +15066,10 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B322" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C322" t="s">
         <v>1676</v>
@@ -15081,7 +15079,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_8A_ID 321</v>
       </c>
       <c r="F322" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="I322">
         <f t="shared" si="9"/>
@@ -15093,7 +15091,7 @@
         <v>294</v>
       </c>
       <c r="B323" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C323" t="s">
         <v>1677</v>
@@ -15103,7 +15101,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_8B_ID 322</v>
       </c>
       <c r="F323" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="I323">
         <f t="shared" ref="I323:I386" si="11">I322+1</f>
@@ -15115,7 +15113,7 @@
         <v>295</v>
       </c>
       <c r="B324" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C324" t="s">
         <v>1678</v>
@@ -15125,7 +15123,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_8C_ID 323</v>
       </c>
       <c r="F324" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="I324">
         <f t="shared" si="11"/>
@@ -15137,7 +15135,7 @@
         <v>296</v>
       </c>
       <c r="B325" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C325" t="s">
         <v>1679</v>
@@ -15147,7 +15145,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_8D_ID 324</v>
       </c>
       <c r="F325" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="I325">
         <f t="shared" si="11"/>
@@ -15159,7 +15157,7 @@
         <v>297</v>
       </c>
       <c r="B326" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C326" t="s">
         <v>1680</v>
@@ -15169,7 +15167,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_9A_ID 325</v>
       </c>
       <c r="F326" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="I326">
         <f t="shared" si="11"/>
@@ -15181,7 +15179,7 @@
         <v>298</v>
       </c>
       <c r="B327" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C327" t="s">
         <v>1681</v>
@@ -15191,7 +15189,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_9B_ID 326</v>
       </c>
       <c r="F327" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="I327">
         <f t="shared" si="11"/>
@@ -15203,7 +15201,7 @@
         <v>299</v>
       </c>
       <c r="B328" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C328" t="s">
         <v>1682</v>
@@ -15213,7 +15211,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_9C_ID 327</v>
       </c>
       <c r="F328" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="I328">
         <f t="shared" si="11"/>
@@ -15225,7 +15223,7 @@
         <v>300</v>
       </c>
       <c r="B329" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C329" t="s">
         <v>1683</v>
@@ -15235,7 +15233,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_9D_ID 328</v>
       </c>
       <c r="F329" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="I329">
         <f t="shared" si="11"/>
@@ -15247,7 +15245,7 @@
         <v>301</v>
       </c>
       <c r="B330" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C330" t="s">
         <v>1684</v>
@@ -15257,7 +15255,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_10A_ID 329</v>
       </c>
       <c r="F330" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="I330">
         <f t="shared" si="11"/>
@@ -15269,7 +15267,7 @@
         <v>302</v>
       </c>
       <c r="B331" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C331" t="s">
         <v>1685</v>
@@ -15279,7 +15277,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_10B_ID 330</v>
       </c>
       <c r="F331" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="I331">
         <f t="shared" si="11"/>
@@ -15291,7 +15289,7 @@
         <v>303</v>
       </c>
       <c r="B332" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C332" t="s">
         <v>1686</v>
@@ -15301,7 +15299,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_10C_ID 331</v>
       </c>
       <c r="F332" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="I332">
         <f t="shared" si="11"/>
@@ -15313,7 +15311,7 @@
         <v>304</v>
       </c>
       <c r="B333" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C333" t="s">
         <v>1687</v>
@@ -15323,7 +15321,7 @@
         <v>#define UI_TEXT_MANUAL_BED_LEVEL_PAGE_10D_ID 332</v>
       </c>
       <c r="F333" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="I333">
         <f t="shared" si="11"/>
@@ -15335,7 +15333,7 @@
         <v>305</v>
       </c>
       <c r="B334" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C334" t="s">
         <v>1688</v>
@@ -15345,7 +15343,7 @@
         <v>#define UI_TEXT_X_MIN_SETTING_ID 333</v>
       </c>
       <c r="F334" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="I334">
         <f t="shared" si="11"/>
@@ -15357,7 +15355,7 @@
         <v>306</v>
       </c>
       <c r="B335" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C335" t="s">
         <v>1689</v>
@@ -15367,7 +15365,7 @@
         <v>#define UI_TEXT_Y_MIN_SETTING_ID 334</v>
       </c>
       <c r="F335" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="I335">
         <f t="shared" si="11"/>
@@ -15379,7 +15377,7 @@
         <v>307</v>
       </c>
       <c r="B336" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C336" t="s">
         <v>1690</v>
@@ -15389,7 +15387,7 @@
         <v>#define UI_TEXT_Z_MIN_SETTING_ID 335</v>
       </c>
       <c r="F336" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="I336">
         <f t="shared" si="11"/>
@@ -15401,7 +15399,7 @@
         <v>308</v>
       </c>
       <c r="B337" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C337" t="s">
         <v>1691</v>
@@ -15411,7 +15409,7 @@
         <v>#define UI_TEXT_TOP_COVER_OPEN_ID 336</v>
       </c>
       <c r="F337" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="I337">
         <f t="shared" si="11"/>
@@ -15423,7 +15421,7 @@
         <v>309</v>
       </c>
       <c r="B338" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C338" t="s">
         <v>1692</v>
@@ -15433,7 +15431,7 @@
         <v>#define UI_TEXT_TOP_SENSOR_ONOFF_ID 337</v>
       </c>
       <c r="F338" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="I338">
         <f t="shared" si="11"/>
@@ -15445,7 +15443,7 @@
         <v>310</v>
       </c>
       <c r="B339" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C339" t="s">
         <v>1693</v>
@@ -15455,7 +15453,7 @@
         <v>#define UI_TEXT_VERSION_MENU_ID 338</v>
       </c>
       <c r="F339" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="I339">
         <f t="shared" si="11"/>
@@ -15467,7 +15465,7 @@
         <v>311</v>
       </c>
       <c r="B340" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C340" t="s">
         <v>1694</v>
@@ -15477,7 +15475,7 @@
         <v>#define UI_TEXT_COOLDOWN_MENU_ID 339</v>
       </c>
       <c r="F340" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="I340">
         <f t="shared" si="11"/>
@@ -15489,7 +15487,7 @@
         <v>312</v>
       </c>
       <c r="B341" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C341" t="s">
         <v>1695</v>
@@ -15499,7 +15497,7 @@
         <v>#define UI_TEXT_WAIT_OK_ID 340</v>
       </c>
       <c r="F341" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="I341">
         <f t="shared" si="11"/>
@@ -15511,7 +15509,7 @@
         <v>313</v>
       </c>
       <c r="B342" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C342" t="s">
         <v>1696</v>
@@ -15521,7 +15519,7 @@
         <v>#define UI_TEXT_FAILED_ID 341</v>
       </c>
       <c r="F342" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="I342">
         <f t="shared" si="11"/>
@@ -15533,7 +15531,7 @@
         <v>314</v>
       </c>
       <c r="B343" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C343" t="s">
         <v>1697</v>
@@ -15543,7 +15541,7 @@
         <v>#define UI_TEXT_PLEASE_WAIT_ID 342</v>
       </c>
       <c r="F343" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="I343">
         <f t="shared" si="11"/>
@@ -15555,17 +15553,17 @@
         <v>315</v>
       </c>
       <c r="B344" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C344" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D344" t="str">
         <f t="shared" si="10"/>
         <v>#define UI_TEXT_MANUAL_LEVEL_ID 343</v>
       </c>
       <c r="F344" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="I344">
         <f t="shared" si="11"/>
@@ -15577,7 +15575,7 @@
         <v>316</v>
       </c>
       <c r="B345" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C345" t="s">
         <v>1698</v>
@@ -15587,7 +15585,7 @@
         <v>#define UI_TEXT_WARNING_ID 344</v>
       </c>
       <c r="F345" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="I345">
         <f t="shared" si="11"/>
@@ -15599,7 +15597,7 @@
         <v>317</v>
       </c>
       <c r="B346" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C346" t="s">
         <v>1699</v>
@@ -15609,7 +15607,7 @@
         <v>#define UI_TEXT_EXTRUDER_COLD_ID 345</v>
       </c>
       <c r="F346" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="I346">
         <f t="shared" si="11"/>
@@ -15621,7 +15619,7 @@
         <v>318</v>
       </c>
       <c r="B347" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C347" t="s">
         <v>1700</v>
@@ -15631,7 +15629,7 @@
         <v>#define UI_TEXT_HEAT_EXTRUDER_ID 346</v>
       </c>
       <c r="F347" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="I347">
         <f t="shared" si="11"/>
@@ -15643,7 +15641,7 @@
         <v>319</v>
       </c>
       <c r="B348" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C348" t="s">
         <v>1701</v>
@@ -15653,7 +15651,7 @@
         <v>#define UI_TEXT_WRITE_DEBUG_ID 347</v>
       </c>
       <c r="F348" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="I348">
         <f t="shared" si="11"/>
@@ -15665,7 +15663,7 @@
         <v>320</v>
       </c>
       <c r="B349" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C349" t="s">
         <v>1702</v>
@@ -15675,7 +15673,7 @@
         <v>#define UI_TEXT_POWER_SAVE_MENU_ID 348</v>
       </c>
       <c r="F349" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="I349">
         <f t="shared" si="11"/>
@@ -15687,7 +15685,7 @@
         <v>321</v>
       </c>
       <c r="B350" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C350" t="s">
         <v>1703</v>
@@ -15697,7 +15695,7 @@
         <v>#define UI_TEXT_MAINTENANCE_ID 349</v>
       </c>
       <c r="F350" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="I350">
         <f t="shared" si="11"/>
@@ -15709,7 +15707,7 @@
         <v>322</v>
       </c>
       <c r="B351" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C351" t="s">
         <v>1704</v>
@@ -15719,7 +15717,7 @@
         <v>#define UI_TEXT_SETTINGS_ID 350</v>
       </c>
       <c r="F351" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="I351">
         <f t="shared" si="11"/>
@@ -15731,7 +15729,7 @@
         <v>323</v>
       </c>
       <c r="B352" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C352" t="s">
         <v>1705</v>
@@ -15741,7 +15739,7 @@
         <v>#define UI_TEXT_LOAD_UNLOAD_ID 351</v>
       </c>
       <c r="F352" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="I352">
         <f t="shared" si="11"/>
@@ -15753,7 +15751,7 @@
         <v>324</v>
       </c>
       <c r="B353" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C353" t="s">
         <v>1706</v>
@@ -15763,7 +15761,7 @@
         <v>#define UI_TEXT_BED_ID 352</v>
       </c>
       <c r="F353" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="I353">
         <f t="shared" si="11"/>
@@ -15775,7 +15773,7 @@
         <v>325</v>
       </c>
       <c r="B354" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C354" t="s">
         <v>1707</v>
@@ -15785,7 +15783,7 @@
         <v>#define UI_TEXT_BED_OFF_ID 353</v>
       </c>
       <c r="F354" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="I354">
         <f t="shared" si="11"/>
@@ -15797,7 +15795,7 @@
         <v>326</v>
       </c>
       <c r="B355" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C355" t="s">
         <v>1708</v>
@@ -15807,7 +15805,7 @@
         <v>#define UI_TEXT_LIGHT_OFF_AFTER_ID 354</v>
       </c>
       <c r="F355" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="I355">
         <f t="shared" si="11"/>
@@ -15819,7 +15817,7 @@
         <v>327</v>
       </c>
       <c r="B356" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C356" t="s">
         <v>1709</v>
@@ -15829,7 +15827,7 @@
         <v>#define UI_TEXT_LIGHT_OFF_AFTER2A_ID 355</v>
       </c>
       <c r="F356" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="I356">
         <f t="shared" si="11"/>
@@ -15841,7 +15839,7 @@
         <v>328</v>
       </c>
       <c r="B357" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C357" t="s">
         <v>1710</v>
@@ -15851,7 +15849,7 @@
         <v>#define UI_TEXT_LIGHT_OFF_AFTER2B_ID 356</v>
       </c>
       <c r="F357" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="I357">
         <f t="shared" si="11"/>
@@ -15863,7 +15861,7 @@
         <v>329</v>
       </c>
       <c r="B358" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C358" t="s">
         <v>1711</v>
@@ -15873,7 +15871,7 @@
         <v>#define UI_TEXT_WARNING_POS_X_UNKNOWN_ID 357</v>
       </c>
       <c r="F358" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="I358">
         <f t="shared" si="11"/>
@@ -15885,7 +15883,7 @@
         <v>330</v>
       </c>
       <c r="B359" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C359" t="s">
         <v>1712</v>
@@ -15895,7 +15893,7 @@
         <v>#define UI_TEXT_WARNING_POS_Y_UNKNOWN_ID 358</v>
       </c>
       <c r="F359" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="I359">
         <f t="shared" si="11"/>
@@ -15907,7 +15905,7 @@
         <v>331</v>
       </c>
       <c r="B360" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C360" t="s">
         <v>1713</v>
@@ -15917,7 +15915,7 @@
         <v>#define UI_TEXT_WARNING_POS_Z_UNKNOWN_ID 359</v>
       </c>
       <c r="F360" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="I360">
         <f t="shared" si="11"/>
@@ -15929,7 +15927,7 @@
         <v>332</v>
       </c>
       <c r="B361" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C361" t="s">
         <v>1714</v>
@@ -15939,7 +15937,7 @@
         <v>#define UI_TEXT_MOVING_ID 360</v>
       </c>
       <c r="F361" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="I361">
         <f t="shared" si="11"/>
@@ -15951,7 +15949,7 @@
         <v>333</v>
       </c>
       <c r="B362" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C362" t="s">
         <v>1715</v>
@@ -15961,7 +15959,7 @@
         <v>#define UI_TEXT_PREPARING_ID 361</v>
       </c>
       <c r="F362" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="I362">
         <f t="shared" si="11"/>
@@ -15973,7 +15971,7 @@
         <v>334</v>
       </c>
       <c r="B363" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C363" t="s">
         <v>1716</v>
@@ -15983,7 +15981,7 @@
         <v>#define UI_TEXT_KEEP_LIGHT_ON_ID 362</v>
       </c>
       <c r="F363" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="I363">
         <f t="shared" si="11"/>
@@ -15995,7 +15993,7 @@
         <v>335</v>
       </c>
       <c r="B364" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C364" t="s">
         <v>1717</v>
@@ -16005,7 +16003,7 @@
         <v>#define UI_TEXT_LOADING_FILAMENT_ID 363</v>
       </c>
       <c r="F364" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="I364">
         <f t="shared" si="11"/>
@@ -16017,7 +16015,7 @@
         <v>336</v>
       </c>
       <c r="B365" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C365" t="s">
         <v>1718</v>
@@ -16027,7 +16025,7 @@
         <v>#define UI_TEXT_UNLOADING_FILAMENT_ID 364</v>
       </c>
       <c r="F365" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="I365">
         <f t="shared" si="11"/>
@@ -16039,7 +16037,7 @@
         <v>337</v>
       </c>
       <c r="B366" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C366" t="s">
         <v>1719</v>
@@ -16049,7 +16047,7 @@
         <v>#define UI_TEXT_LOADUNLOAD_FILAMENT_ID 365</v>
       </c>
       <c r="F366" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="I366">
         <f t="shared" si="11"/>
@@ -16061,17 +16059,17 @@
         <v>338</v>
       </c>
       <c r="B367" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C367" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D367" t="str">
         <f t="shared" si="10"/>
         <v>#define UI_TEXT_AUTOLEVEL_ID 366</v>
       </c>
       <c r="F367" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="I367">
         <f t="shared" si="11"/>
@@ -16083,7 +16081,7 @@
         <v>339</v>
       </c>
       <c r="B368" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C368" t="s">
         <v>1720</v>
@@ -16093,7 +16091,7 @@
         <v>#define UI_TEXT_Z_PROBE_FAILED_ID 367</v>
       </c>
       <c r="F368" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="I368">
         <f t="shared" si="11"/>
@@ -16105,7 +16103,7 @@
         <v>340</v>
       </c>
       <c r="B369" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C369" t="s">
         <v>1721</v>
@@ -16115,7 +16113,7 @@
         <v>#define UI_TEXT_SAVE_ID 368</v>
       </c>
       <c r="F369" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="I369">
         <f t="shared" si="11"/>
@@ -16127,7 +16125,7 @@
         <v>341</v>
       </c>
       <c r="B370" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C370" t="s">
         <v>1722</v>
@@ -16137,7 +16135,7 @@
         <v>#define UI_TEXT_ZMIN_ID 369</v>
       </c>
       <c r="F370" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="I370">
         <f t="shared" si="11"/>
@@ -16149,7 +16147,7 @@
         <v>342</v>
       </c>
       <c r="B371" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C371" t="s">
         <v>1723</v>
@@ -16159,7 +16157,7 @@
         <v>#define UI_TEXT_ZPROBING_ID 370</v>
       </c>
       <c r="F371" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="I371">
         <f t="shared" si="11"/>
@@ -16171,7 +16169,7 @@
         <v>343</v>
       </c>
       <c r="B372" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C372" t="s">
         <v>1724</v>
@@ -16181,7 +16179,7 @@
         <v>#define UI_TEXT_ZPOSITION_ID 371</v>
       </c>
       <c r="F372" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="I372">
         <f t="shared" si="11"/>
@@ -16193,7 +16191,7 @@
         <v>344</v>
       </c>
       <c r="B373" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C373" t="s">
         <v>1725</v>
@@ -16203,7 +16201,7 @@
         <v>#define UI_TEXT_DO_YOU_ID 372</v>
       </c>
       <c r="F373" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="I373">
         <f t="shared" si="11"/>
@@ -16215,7 +16213,7 @@
         <v>345</v>
       </c>
       <c r="B374" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C374" t="s">
         <v>1726</v>
@@ -16225,7 +16223,7 @@
         <v>#define UI_TEXT_CLEAN1_ID 373</v>
       </c>
       <c r="F374" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="I374">
         <f t="shared" si="11"/>
@@ -16237,7 +16235,7 @@
         <v>346</v>
       </c>
       <c r="B375" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C375" t="s">
         <v>1727</v>
@@ -16247,7 +16245,7 @@
         <v>#define UI_TEXT_CLEAN2_ID 374</v>
       </c>
       <c r="F375" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="I375">
         <f t="shared" si="11"/>
@@ -16259,7 +16257,7 @@
         <v>347</v>
       </c>
       <c r="B376" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C376" t="s">
         <v>1728</v>
@@ -16269,7 +16267,7 @@
         <v>#define UI_TEXT_DISPLAY_MODE_ID 375</v>
       </c>
       <c r="F376" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="I376">
         <f t="shared" si="11"/>
@@ -16281,7 +16279,7 @@
         <v>348</v>
       </c>
       <c r="B377" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C377" t="s">
         <v>1729</v>
@@ -16291,7 +16289,7 @@
         <v>#define UI_TEXT_EASY_MODE_ID 376</v>
       </c>
       <c r="F377" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="I377">
         <f t="shared" si="11"/>
@@ -16303,7 +16301,7 @@
         <v>349</v>
       </c>
       <c r="B378" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C378" t="s">
         <v>1730</v>
@@ -16313,7 +16311,7 @@
         <v>#define UI_TEXT_ADVANCED_MODE_ID 377</v>
       </c>
       <c r="F378" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="I378">
         <f t="shared" si="11"/>
@@ -16325,7 +16323,7 @@
         <v>350</v>
       </c>
       <c r="B379" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C379" t="s">
         <v>1731</v>
@@ -16335,7 +16333,7 @@
         <v>#define UI_TEXT_POWER_SAVE_ID 378</v>
       </c>
       <c r="F379" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="I379">
         <f t="shared" si="11"/>
@@ -16347,7 +16345,7 @@
         <v>351</v>
       </c>
       <c r="B380" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C380" t="s">
         <v>1732</v>
@@ -16357,7 +16355,7 @@
         <v>#define UI_TEXT_BADGE_LIGHT_ONOFF_ID 379</v>
       </c>
       <c r="F380" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="I380">
         <f t="shared" si="11"/>
@@ -16369,7 +16367,7 @@
         <v>352</v>
       </c>
       <c r="B381" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C381" t="s">
         <v>1733</v>
@@ -16379,7 +16377,7 @@
         <v>#define UI_TEXT_SOUND_ONOF_ID 380</v>
       </c>
       <c r="F381" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="I381">
         <f t="shared" si="11"/>
@@ -16391,7 +16389,7 @@
         <v>353</v>
       </c>
       <c r="B382" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C382" t="s">
         <v>1734</v>
@@ -16401,7 +16399,7 @@
         <v>#define UI_TEXT_YES_SELECTED_ID 381</v>
       </c>
       <c r="F382" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="I382">
         <f t="shared" si="11"/>
@@ -16413,7 +16411,7 @@
         <v>354</v>
       </c>
       <c r="B383" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C383" t="s">
         <v>1735</v>
@@ -16423,7 +16421,7 @@
         <v>#define UI_TEXT_NO_SELECTED_ID 382</v>
       </c>
       <c r="F383" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="I383">
         <f t="shared" si="11"/>
@@ -16435,7 +16433,7 @@
         <v>355</v>
       </c>
       <c r="B384" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C384" t="s">
         <v>1736</v>
@@ -16445,7 +16443,7 @@
         <v>#define UI_TEXT_PLEASE_CONFIRM_ID 383</v>
       </c>
       <c r="F384" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="I384">
         <f t="shared" si="11"/>
@@ -16457,7 +16455,7 @@
         <v>356</v>
       </c>
       <c r="B385" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C385" t="s">
         <v>1737</v>
@@ -16467,7 +16465,7 @@
         <v>#define UI_TEXT_CANCEL_ACTION_ID 384</v>
       </c>
       <c r="F385" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="I385">
         <f t="shared" si="11"/>
@@ -16479,7 +16477,7 @@
         <v>357</v>
       </c>
       <c r="B386" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C386" t="s">
         <v>1738</v>
@@ -16489,7 +16487,7 @@
         <v>#define UI_TEXT_CONTINUE_ACTION_ID 385</v>
       </c>
       <c r="F386" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="I386">
         <f t="shared" si="11"/>
@@ -16501,7 +16499,7 @@
         <v>358</v>
       </c>
       <c r="B387" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C387" t="s">
         <v>1739</v>
@@ -16511,7 +16509,7 @@
         <v>#define UI_TEXT_CANCELED_ID 386</v>
       </c>
       <c r="F387" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="I387">
         <f t="shared" ref="I387:I401" si="13">I386+1</f>
@@ -16523,7 +16521,7 @@
         <v>359</v>
       </c>
       <c r="B388" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C388" t="s">
         <v>1740</v>
@@ -16533,7 +16531,7 @@
         <v>#define UI_TEXT_CONFIRMED_ID 387</v>
       </c>
       <c r="F388" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="I388">
         <f t="shared" si="13"/>
@@ -16545,7 +16543,7 @@
         <v>360</v>
       </c>
       <c r="B389" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C389" t="s">
         <v>1741</v>
@@ -16555,7 +16553,7 @@
         <v>#define UI_TEXT_CLEAN_NOZZLE_ID 388</v>
       </c>
       <c r="F389" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="I389">
         <f t="shared" si="13"/>
@@ -16567,7 +16565,7 @@
         <v>361</v>
       </c>
       <c r="B390" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C390" t="s">
         <v>1742</v>
@@ -16577,7 +16575,7 @@
         <v>#define UI_TEXT_CLEANING_NOZZLE_ID 389</v>
       </c>
       <c r="F390" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="I390">
         <f t="shared" si="13"/>
@@ -16589,7 +16587,7 @@
         <v>362</v>
       </c>
       <c r="B391" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C391" t="s">
         <v>1743</v>
@@ -16599,7 +16597,7 @@
         <v>#define UI_TEXT_CLEAN_DRIPBOX_1_ID 390</v>
       </c>
       <c r="F391" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="I391">
         <f t="shared" si="13"/>
@@ -16611,7 +16609,7 @@
         <v>363</v>
       </c>
       <c r="B392" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C392" t="s">
         <v>1744</v>
@@ -16621,7 +16619,7 @@
         <v>#define UI_TEXT_CLEAN_DRIPBOX_2_ID 391</v>
       </c>
       <c r="F392" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="I392">
         <f t="shared" si="13"/>
@@ -16633,7 +16631,7 @@
         <v>364</v>
       </c>
       <c r="B393" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C393" t="s">
         <v>1745</v>
@@ -16643,7 +16641,7 @@
         <v>#define UI_TEXT_PUSH_FILAMENT_ID 392</v>
       </c>
       <c r="F393" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="I393">
         <f t="shared" si="13"/>
@@ -16655,7 +16653,7 @@
         <v>365</v>
       </c>
       <c r="B394" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C394" t="s">
         <v>1746</v>
@@ -16665,7 +16663,7 @@
         <v>#define UI_TEXT_WAIT_FILAMENT_ID 393</v>
       </c>
       <c r="F394" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="I394">
         <f t="shared" si="13"/>
@@ -16677,7 +16675,7 @@
         <v>366</v>
       </c>
       <c r="B395" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C395" t="s">
         <v>1747</v>
@@ -16687,7 +16685,7 @@
         <v>#define UI_TEXT_LOAD_FAILSAFE2_ID 394</v>
       </c>
       <c r="F395" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="I395">
         <f t="shared" si="13"/>
@@ -16699,7 +16697,7 @@
         <v>367</v>
       </c>
       <c r="B396" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C396" t="s">
         <v>1748</v>
@@ -16709,7 +16707,7 @@
         <v>#define UI_TEXT_LOAD_FAILSAFE_ID 395</v>
       </c>
       <c r="F396" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="I396">
         <f t="shared" si="13"/>
@@ -16721,7 +16719,7 @@
         <v>368</v>
       </c>
       <c r="B397" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C397" t="s">
         <v>1749</v>
@@ -16731,7 +16729,7 @@
         <v>#define UI_TEXT_HEATING_ID 396</v>
       </c>
       <c r="F397" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="I397">
         <f t="shared" si="13"/>
@@ -16743,7 +16741,7 @@
         <v>369</v>
       </c>
       <c r="B398" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C398" t="s">
         <v>1750</v>
@@ -16753,7 +16751,7 @@
         <v>#define UI_TEXT_WAIT_FOR_OK_ID 397</v>
       </c>
       <c r="F398" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="I398">
         <f t="shared" si="13"/>
@@ -16765,17 +16763,17 @@
         <v>370</v>
       </c>
       <c r="B399" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C399" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D399" t="str">
         <f t="shared" si="12"/>
         <v>#define UI_TEXT_MAIN_LINE1_ID 398</v>
       </c>
       <c r="F399" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="I399">
         <f t="shared" si="13"/>
@@ -16787,17 +16785,17 @@
         <v>371</v>
       </c>
       <c r="B400" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C400" t="s">
         <v>1889</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1890</v>
       </c>
       <c r="D400" t="str">
         <f t="shared" si="12"/>
         <v>#define UI_TEXT_MAIN_LINE2_ID 399</v>
       </c>
       <c r="F400" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="I400">
         <f t="shared" si="13"/>
@@ -16809,17 +16807,17 @@
         <v>372</v>
       </c>
       <c r="B401" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C401" t="s">
         <v>1901</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1902</v>
       </c>
       <c r="D401" t="str">
         <f t="shared" si="12"/>
         <v>#define UI_TEXT_AUTOLEVEL_MATRIX_ID 400</v>
       </c>
       <c r="F401" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="I401">
         <f t="shared" si="13"/>
@@ -16983,12 +16981,12 @@
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
@@ -16998,12 +16996,12 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
@@ -17013,11 +17011,12 @@
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17211,10 +17210,10 @@
         <v>424</v>
       </c>
       <c r="F9" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G9" t="s">
         <v>1914</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -17231,13 +17230,13 @@
         <v>411</v>
       </c>
       <c r="E10" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F10" t="s">
         <v>1916</v>
       </c>
-      <c r="F10" t="s">
-        <v>1917</v>
-      </c>
       <c r="G10" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -17254,7 +17253,7 @@
         <v>411</v>
       </c>
       <c r="E11" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F11" t="s">
         <v>434</v>
@@ -17274,7 +17273,7 @@
         <v>411</v>
       </c>
       <c r="E12" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F12" t="s">
         <v>874</v>
@@ -17362,10 +17361,10 @@
         <v>411</v>
       </c>
       <c r="E17" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F17" t="s">
         <v>1914</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -17399,10 +17398,10 @@
         <v>411</v>
       </c>
       <c r="E19" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F19" t="s">
         <v>1920</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -17419,10 +17418,10 @@
         <v>411</v>
       </c>
       <c r="E20" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F20" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -17439,7 +17438,7 @@
         <v>411</v>
       </c>
       <c r="E21" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F21" t="s">
         <v>1476</v>
@@ -17459,7 +17458,7 @@
         <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F22" t="s">
         <v>1478</v>
@@ -17479,7 +17478,7 @@
         <v>411</v>
       </c>
       <c r="E23" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F23" t="s">
         <v>1480</v>
@@ -17499,10 +17498,10 @@
         <v>411</v>
       </c>
       <c r="E24" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F24" t="s">
         <v>1923</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17519,10 +17518,10 @@
         <v>411</v>
       </c>
       <c r="E25" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F25" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -17539,10 +17538,10 @@
         <v>411</v>
       </c>
       <c r="E26" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F26" t="s">
         <v>1926</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -17576,13 +17575,13 @@
         <v>411</v>
       </c>
       <c r="E28" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F28" t="s">
         <v>805</v>
       </c>
       <c r="G28" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -17599,10 +17598,10 @@
         <v>411</v>
       </c>
       <c r="E29" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F29" t="s">
         <v>1930</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -17642,10 +17641,10 @@
         <v>1476</v>
       </c>
       <c r="F31" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G31" t="s">
         <v>1932</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -17685,10 +17684,10 @@
         <v>1478</v>
       </c>
       <c r="F33" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G33" t="s">
         <v>1932</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -17728,10 +17727,10 @@
         <v>1480</v>
       </c>
       <c r="F35" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G35" t="s">
         <v>1932</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -17748,7 +17747,7 @@
         <v>411</v>
       </c>
       <c r="E36" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F36" t="s">
         <v>1508</v>
@@ -17771,10 +17770,10 @@
         <v>878</v>
       </c>
       <c r="F37" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G37" t="s">
         <v>1935</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1936</v>
       </c>
       <c r="H37" t="s">
         <v>467</v>
@@ -17797,7 +17796,7 @@
         <v>411</v>
       </c>
       <c r="E39" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -17806,7 +17805,7 @@
         <v>654</v>
       </c>
       <c r="H39" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="I39" t="s">
         <v>467</v>
@@ -17829,7 +17828,7 @@
         <v>411</v>
       </c>
       <c r="E43" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -17838,7 +17837,7 @@
         <v>654</v>
       </c>
       <c r="H43" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I43" t="s">
         <v>467</v>
@@ -17861,7 +17860,7 @@
         <v>411</v>
       </c>
       <c r="E44" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -17870,7 +17869,7 @@
         <v>654</v>
       </c>
       <c r="H44" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="I44" t="s">
         <v>467</v>
@@ -17893,10 +17892,10 @@
         <v>411</v>
       </c>
       <c r="E46" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F46" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -17919,10 +17918,10 @@
         <v>411</v>
       </c>
       <c r="E50" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F50" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -17945,10 +17944,10 @@
         <v>411</v>
       </c>
       <c r="E51" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F51" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -17971,13 +17970,13 @@
         <v>411</v>
       </c>
       <c r="E52" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F52" t="s">
         <v>1942</v>
       </c>
-      <c r="F52" t="s">
-        <v>1943</v>
-      </c>
       <c r="G52" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -17997,13 +17996,13 @@
         <v>411</v>
       </c>
       <c r="E53" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F53" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G53" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -18023,13 +18022,13 @@
         <v>411</v>
       </c>
       <c r="E54" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F54" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G54" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -18049,10 +18048,10 @@
         <v>411</v>
       </c>
       <c r="E55" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F55" t="s">
         <v>1928</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -18072,7 +18071,7 @@
         <v>1580</v>
       </c>
       <c r="F56" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -18092,7 +18091,7 @@
         <v>1580</v>
       </c>
       <c r="F57" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -18112,7 +18111,7 @@
         <v>1580</v>
       </c>
       <c r="F58" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -18146,13 +18145,13 @@
         <v>411</v>
       </c>
       <c r="E60" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F60" t="s">
         <v>1476</v>
       </c>
       <c r="G60" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -18169,13 +18168,13 @@
         <v>411</v>
       </c>
       <c r="E61" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F61" t="s">
         <v>1478</v>
       </c>
       <c r="G61" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -18192,13 +18191,13 @@
         <v>411</v>
       </c>
       <c r="E62" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F62" t="s">
         <v>1480</v>
       </c>
       <c r="G62" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -18232,10 +18231,10 @@
         <v>411</v>
       </c>
       <c r="E64" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F64" t="s">
         <v>1953</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -18252,10 +18251,10 @@
         <v>411</v>
       </c>
       <c r="E65" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F65" t="s">
         <v>1955</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -18289,7 +18288,7 @@
         <v>411</v>
       </c>
       <c r="E67" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F67" t="s">
         <v>805</v>
@@ -18315,7 +18314,7 @@
         <v>1462</v>
       </c>
       <c r="F68" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G68" t="s">
         <v>1591</v>
@@ -18335,10 +18334,10 @@
         <v>411</v>
       </c>
       <c r="E69" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F69" t="s">
         <v>1959</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -18355,10 +18354,10 @@
         <v>411</v>
       </c>
       <c r="E70" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F70" t="s">
         <v>1961</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -18375,10 +18374,10 @@
         <v>411</v>
       </c>
       <c r="E71" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F71" t="s">
         <v>1963</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -18395,10 +18394,10 @@
         <v>411</v>
       </c>
       <c r="E72" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F72" t="s">
         <v>1965</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -18415,10 +18414,10 @@
         <v>411</v>
       </c>
       <c r="E73" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F73" t="s">
         <v>1967</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1968</v>
       </c>
       <c r="G73" t="s">
         <v>414</v>
@@ -18438,13 +18437,13 @@
         <v>411</v>
       </c>
       <c r="E74" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G74" t="s">
         <v>1969</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1968</v>
-      </c>
-      <c r="G74" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -18461,13 +18460,13 @@
         <v>411</v>
       </c>
       <c r="E75" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F75" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G75" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -18484,10 +18483,10 @@
         <v>411</v>
       </c>
       <c r="E76" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F76" t="s">
         <v>1972</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -18504,10 +18503,10 @@
         <v>411</v>
       </c>
       <c r="E77" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F77" t="s">
         <v>1974</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -18524,10 +18523,10 @@
         <v>411</v>
       </c>
       <c r="E78" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F78" t="s">
         <v>1976</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -18544,10 +18543,10 @@
         <v>411</v>
       </c>
       <c r="E79" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F79" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -18564,10 +18563,10 @@
         <v>411</v>
       </c>
       <c r="E80" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F80" t="s">
         <v>1979</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -18587,7 +18586,7 @@
         <v>1580</v>
       </c>
       <c r="F81" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -18604,7 +18603,7 @@
         <v>411</v>
       </c>
       <c r="E82" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F82" t="s">
         <v>1580</v>
@@ -18644,10 +18643,10 @@
         <v>411</v>
       </c>
       <c r="E84" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F84" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -18664,10 +18663,10 @@
         <v>411</v>
       </c>
       <c r="E85" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F85" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -18684,10 +18683,10 @@
         <v>411</v>
       </c>
       <c r="E86" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F86" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -18721,10 +18720,10 @@
         <v>411</v>
       </c>
       <c r="E88" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F88" t="s">
         <v>1986</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1987</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -18741,10 +18740,10 @@
         <v>411</v>
       </c>
       <c r="E89" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F89" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -18761,10 +18760,10 @@
         <v>411</v>
       </c>
       <c r="E90" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F90" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -18798,10 +18797,10 @@
         <v>411</v>
       </c>
       <c r="E92" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F92" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -18818,10 +18817,10 @@
         <v>411</v>
       </c>
       <c r="E93" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F93" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -18838,10 +18837,10 @@
         <v>411</v>
       </c>
       <c r="E94" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F94" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -18875,10 +18874,10 @@
         <v>411</v>
       </c>
       <c r="E96" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F96" t="s">
         <v>1993</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -18895,10 +18894,10 @@
         <v>411</v>
       </c>
       <c r="E97" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F97" t="s">
         <v>1995</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -18915,10 +18914,10 @@
         <v>411</v>
       </c>
       <c r="E98" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F98" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -18949,10 +18948,10 @@
         <v>411</v>
       </c>
       <c r="E100" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F100" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -18969,10 +18968,10 @@
         <v>411</v>
       </c>
       <c r="E101" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F101" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -18989,10 +18988,10 @@
         <v>411</v>
       </c>
       <c r="E102" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F102" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -19023,10 +19022,10 @@
         <v>411</v>
       </c>
       <c r="E104" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F104" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -19043,10 +19042,10 @@
         <v>411</v>
       </c>
       <c r="E105" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F105" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -19063,10 +19062,10 @@
         <v>411</v>
       </c>
       <c r="E106" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F106" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -19097,10 +19096,10 @@
         <v>411</v>
       </c>
       <c r="E108" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F108" t="s">
         <v>1993</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -19117,10 +19116,10 @@
         <v>411</v>
       </c>
       <c r="E109" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F109" t="s">
         <v>1995</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -19137,10 +19136,10 @@
         <v>411</v>
       </c>
       <c r="E110" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F110" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -19171,10 +19170,10 @@
         <v>411</v>
       </c>
       <c r="E112" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F112" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -19191,10 +19190,10 @@
         <v>411</v>
       </c>
       <c r="E113" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F113" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -19211,10 +19210,10 @@
         <v>411</v>
       </c>
       <c r="E114" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F114" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -19245,10 +19244,10 @@
         <v>411</v>
       </c>
       <c r="E116" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F116" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -19265,10 +19264,10 @@
         <v>411</v>
       </c>
       <c r="E117" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F117" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -19285,10 +19284,10 @@
         <v>411</v>
       </c>
       <c r="E118" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F118" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -19319,10 +19318,10 @@
         <v>411</v>
       </c>
       <c r="E120" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F120" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -19342,16 +19341,16 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G121" t="s">
         <v>2005</v>
-      </c>
-      <c r="G121" t="s">
-        <v>2006</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -19368,10 +19367,10 @@
         <v>411</v>
       </c>
       <c r="E122" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F122" t="s">
         <v>1993</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -19388,10 +19387,10 @@
         <v>411</v>
       </c>
       <c r="E123" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F123" t="s">
         <v>2007</v>
-      </c>
-      <c r="F123" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -19408,10 +19407,10 @@
         <v>411</v>
       </c>
       <c r="E124" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F124" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -19428,10 +19427,10 @@
         <v>411</v>
       </c>
       <c r="E125" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F125" t="s">
         <v>2009</v>
-      </c>
-      <c r="F125" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -19448,10 +19447,10 @@
         <v>411</v>
       </c>
       <c r="E126" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F126" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -19468,10 +19467,10 @@
         <v>411</v>
       </c>
       <c r="E127" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F127" t="s">
         <v>2011</v>
-      </c>
-      <c r="F127" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -19488,10 +19487,10 @@
         <v>411</v>
       </c>
       <c r="E128" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F128" t="s">
         <v>1993</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -19508,10 +19507,10 @@
         <v>411</v>
       </c>
       <c r="E129" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F129" t="s">
         <v>2007</v>
-      </c>
-      <c r="F129" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -19528,10 +19527,10 @@
         <v>411</v>
       </c>
       <c r="E130" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F130" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -19548,10 +19547,10 @@
         <v>411</v>
       </c>
       <c r="E131" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F131" t="s">
         <v>2009</v>
-      </c>
-      <c r="F131" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -19568,10 +19567,10 @@
         <v>411</v>
       </c>
       <c r="E132" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F132" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -19588,10 +19587,10 @@
         <v>411</v>
       </c>
       <c r="E133" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F133" t="s">
         <v>2011</v>
-      </c>
-      <c r="F133" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -19608,10 +19607,10 @@
         <v>411</v>
       </c>
       <c r="E134" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F134" t="s">
         <v>2013</v>
-      </c>
-      <c r="F134" t="s">
-        <v>2014</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -19628,10 +19627,10 @@
         <v>411</v>
       </c>
       <c r="E135" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F135" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -19648,10 +19647,10 @@
         <v>411</v>
       </c>
       <c r="E136" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F136" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G136" t="s">
         <v>414</v>
@@ -19671,13 +19670,13 @@
         <v>411</v>
       </c>
       <c r="E137" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F137" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G137" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -19694,13 +19693,13 @@
         <v>411</v>
       </c>
       <c r="E138" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F138" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G138" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -19717,13 +19716,13 @@
         <v>411</v>
       </c>
       <c r="E139" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F139" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G139" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -19740,13 +19739,13 @@
         <v>411</v>
       </c>
       <c r="E140" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F140" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G140" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -19763,10 +19762,10 @@
         <v>411</v>
       </c>
       <c r="E141" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F141" t="s">
         <v>2020</v>
-      </c>
-      <c r="F141" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -19786,10 +19785,10 @@
         <v>1574</v>
       </c>
       <c r="F142" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G142" t="s">
         <v>2022</v>
-      </c>
-      <c r="G142" t="s">
-        <v>2023</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -19826,10 +19825,10 @@
         <v>411</v>
       </c>
       <c r="E144" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F144" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -19849,10 +19848,10 @@
         <v>1574</v>
       </c>
       <c r="F145" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G145" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -19940,10 +19939,10 @@
         <v>411</v>
       </c>
       <c r="E150" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F150" t="s">
         <v>2026</v>
-      </c>
-      <c r="F150" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -19960,10 +19959,10 @@
         <v>411</v>
       </c>
       <c r="E151" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F151" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -20014,10 +20013,10 @@
         <v>411</v>
       </c>
       <c r="E154" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F154" t="s">
         <v>2029</v>
-      </c>
-      <c r="F154" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -20034,10 +20033,10 @@
         <v>411</v>
       </c>
       <c r="E155" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F155" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -20074,7 +20073,7 @@
         <v>606</v>
       </c>
       <c r="F157" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -20108,10 +20107,10 @@
         <v>411</v>
       </c>
       <c r="E159" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F159" t="s">
         <v>2033</v>
-      </c>
-      <c r="F159" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -20131,7 +20130,7 @@
         <v>606</v>
       </c>
       <c r="F160" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -20151,7 +20150,7 @@
         <v>606</v>
       </c>
       <c r="F161" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -20168,10 +20167,10 @@
         <v>411</v>
       </c>
       <c r="E162" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F162" t="s">
         <v>2037</v>
-      </c>
-      <c r="F162" t="s">
-        <v>2038</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -20188,10 +20187,10 @@
         <v>411</v>
       </c>
       <c r="E163" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F163" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -20211,7 +20210,7 @@
         <v>606</v>
       </c>
       <c r="F164" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -20276,7 +20275,7 @@
         <v>161</v>
       </c>
       <c r="D168" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E168" t="s">
         <v>443</v>
@@ -20296,7 +20295,7 @@
         <v>411</v>
       </c>
       <c r="E169" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F169" t="s">
         <v>878</v>
@@ -20333,10 +20332,10 @@
         <v>411</v>
       </c>
       <c r="E171" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F171" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -20370,10 +20369,10 @@
         <v>411</v>
       </c>
       <c r="E173" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F173" t="s">
         <v>2043</v>
-      </c>
-      <c r="F173" t="s">
-        <v>2044</v>
       </c>
       <c r="G173" t="s">
         <v>1591</v>
@@ -20410,10 +20409,10 @@
         <v>411</v>
       </c>
       <c r="E175" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F175" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G175" t="s">
         <v>1591</v>
@@ -20467,7 +20466,7 @@
         <v>411</v>
       </c>
       <c r="E178" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F178" t="s">
         <v>467</v>
@@ -20583,7 +20582,7 @@
         <v>411</v>
       </c>
       <c r="E182" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F182" t="s">
         <v>467</v>
@@ -20612,10 +20611,10 @@
         <v>411</v>
       </c>
       <c r="E183" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F183" t="s">
         <v>2048</v>
-      </c>
-      <c r="F183" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -20632,13 +20631,13 @@
         <v>411</v>
       </c>
       <c r="E184" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F184" t="s">
         <v>2050</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>2051</v>
-      </c>
-      <c r="G184" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -20655,10 +20654,10 @@
         <v>411</v>
       </c>
       <c r="E185" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F185" t="s">
         <v>2053</v>
-      </c>
-      <c r="F185" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -20675,10 +20674,10 @@
         <v>411</v>
       </c>
       <c r="E186" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F186" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -20695,10 +20694,10 @@
         <v>411</v>
       </c>
       <c r="E187" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F187" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -20718,7 +20717,7 @@
         <v>1480</v>
       </c>
       <c r="F188" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -20735,10 +20734,10 @@
         <v>411</v>
       </c>
       <c r="E189" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F189" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -20755,10 +20754,10 @@
         <v>411</v>
       </c>
       <c r="E190" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F190" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -20775,10 +20774,10 @@
         <v>411</v>
       </c>
       <c r="E191" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F191" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -20795,10 +20794,10 @@
         <v>411</v>
       </c>
       <c r="E192" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F192" t="s">
         <v>2061</v>
-      </c>
-      <c r="F192" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -20815,10 +20814,10 @@
         <v>411</v>
       </c>
       <c r="E193" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F193" t="s">
         <v>2063</v>
-      </c>
-      <c r="F193" t="s">
-        <v>2064</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -20835,13 +20834,13 @@
         <v>411</v>
       </c>
       <c r="E194" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G194" t="s">
         <v>2065</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1937</v>
-      </c>
-      <c r="G194" t="s">
-        <v>2066</v>
       </c>
       <c r="H194" t="s">
         <v>467</v>
@@ -20864,16 +20863,16 @@
         <v>411</v>
       </c>
       <c r="E195" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F195" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G195" t="s">
         <v>2067</v>
       </c>
-      <c r="G195" t="s">
-        <v>2068</v>
-      </c>
       <c r="H195" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -20890,13 +20889,13 @@
         <v>411</v>
       </c>
       <c r="E196" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F196" t="s">
         <v>1914</v>
       </c>
-      <c r="F196" t="s">
-        <v>1915</v>
-      </c>
       <c r="G196" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -20913,13 +20912,13 @@
         <v>411</v>
       </c>
       <c r="E197" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F197" t="s">
         <v>1914</v>
       </c>
-      <c r="F197" t="s">
-        <v>1915</v>
-      </c>
       <c r="G197" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -20936,10 +20935,10 @@
         <v>411</v>
       </c>
       <c r="E198" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F198" t="s">
         <v>2071</v>
-      </c>
-      <c r="F198" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -20956,7 +20955,7 @@
         <v>411</v>
       </c>
       <c r="E199" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -21007,7 +21006,7 @@
         <v>428</v>
       </c>
       <c r="F202" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -21061,13 +21060,13 @@
         <v>411</v>
       </c>
       <c r="E205" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F205" t="s">
         <v>2075</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G205" t="s">
         <v>2076</v>
-      </c>
-      <c r="G205" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -21084,10 +21083,10 @@
         <v>411</v>
       </c>
       <c r="E206" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F206" t="s">
         <v>2078</v>
-      </c>
-      <c r="F206" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -21121,7 +21120,7 @@
         <v>411</v>
       </c>
       <c r="E208" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F208" t="s">
         <v>1580</v>
@@ -21144,7 +21143,7 @@
         <v>1480</v>
       </c>
       <c r="F209" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -21161,7 +21160,7 @@
         <v>411</v>
       </c>
       <c r="E210" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F210" t="s">
         <v>1486</v>
@@ -21181,7 +21180,7 @@
         <v>411</v>
       </c>
       <c r="E211" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F211" t="s">
         <v>1486</v>
@@ -21201,7 +21200,7 @@
         <v>411</v>
       </c>
       <c r="E212" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F212" t="s">
         <v>805</v>
@@ -21227,7 +21226,7 @@
         <v>1486</v>
       </c>
       <c r="F213" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -21244,13 +21243,13 @@
         <v>411</v>
       </c>
       <c r="E214" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F214" t="s">
         <v>2085</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>2086</v>
-      </c>
-      <c r="G214" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -21267,10 +21266,10 @@
         <v>411</v>
       </c>
       <c r="E215" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F215" t="s">
         <v>2088</v>
-      </c>
-      <c r="F215" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -21287,13 +21286,13 @@
         <v>411</v>
       </c>
       <c r="E216" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F216" t="s">
         <v>2090</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>2091</v>
-      </c>
-      <c r="G216" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -21310,16 +21309,16 @@
         <v>411</v>
       </c>
       <c r="E217" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F217" t="s">
         <v>2093</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>2094</v>
       </c>
-      <c r="G217" t="s">
+      <c r="H217" t="s">
         <v>2095</v>
-      </c>
-      <c r="H217" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -21336,13 +21335,13 @@
         <v>411</v>
       </c>
       <c r="E218" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F218" t="s">
         <v>805</v>
       </c>
       <c r="G218" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -21376,13 +21375,13 @@
         <v>411</v>
       </c>
       <c r="E220" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F220" t="s">
         <v>418</v>
       </c>
       <c r="G220" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -21399,10 +21398,10 @@
         <v>411</v>
       </c>
       <c r="E221" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F221" t="s">
         <v>2099</v>
-      </c>
-      <c r="F221" t="s">
-        <v>2100</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -21422,7 +21421,7 @@
         <v>443</v>
       </c>
       <c r="F222" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -21459,7 +21458,7 @@
         <v>878</v>
       </c>
       <c r="F224" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -21479,13 +21478,13 @@
         <v>878</v>
       </c>
       <c r="F225" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G225" t="s">
         <v>2103</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>2104</v>
-      </c>
-      <c r="H225" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -21505,13 +21504,13 @@
         <v>878</v>
       </c>
       <c r="F226" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G226" t="s">
         <v>2103</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>2104</v>
-      </c>
-      <c r="H226" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -21531,7 +21530,7 @@
         <v>424</v>
       </c>
       <c r="F227" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -21582,13 +21581,13 @@
         <v>411</v>
       </c>
       <c r="E230" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F230" t="s">
         <v>2106</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>2107</v>
-      </c>
-      <c r="G230" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -21605,13 +21604,13 @@
         <v>411</v>
       </c>
       <c r="E231" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F231" t="s">
         <v>2109</v>
       </c>
-      <c r="F231" t="s">
-        <v>2110</v>
-      </c>
       <c r="G231" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -21628,10 +21627,10 @@
         <v>411</v>
       </c>
       <c r="E232" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F232" t="s">
         <v>2111</v>
-      </c>
-      <c r="F232" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -21671,7 +21670,7 @@
         <v>654</v>
       </c>
       <c r="G234" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -21959,7 +21958,7 @@
         <v>740</v>
       </c>
       <c r="F265" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -22061,7 +22060,7 @@
         <v>411</v>
       </c>
       <c r="E271" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F271">
         <v>4</v>
@@ -22070,7 +22069,7 @@
         <v>654</v>
       </c>
       <c r="H271" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="I271" t="s">
         <v>467</v>
@@ -22093,7 +22092,7 @@
         <v>411</v>
       </c>
       <c r="E272" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F272">
         <v>5</v>
@@ -22102,7 +22101,7 @@
         <v>654</v>
       </c>
       <c r="H272" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="I272" t="s">
         <v>467</v>
@@ -22125,7 +22124,7 @@
         <v>411</v>
       </c>
       <c r="E273" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F273">
         <v>6</v>
@@ -22134,7 +22133,7 @@
         <v>654</v>
       </c>
       <c r="H273" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="I273" t="s">
         <v>467</v>
@@ -22584,7 +22583,7 @@
         <v>409</v>
       </c>
       <c r="B312" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C312">
         <v>286</v>
@@ -22739,7 +22738,7 @@
         <v>411</v>
       </c>
       <c r="E319" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -22756,7 +22755,7 @@
         <v>411</v>
       </c>
       <c r="E320" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -22776,7 +22775,7 @@
         <v>1482</v>
       </c>
       <c r="F321" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -22796,7 +22795,7 @@
         <v>1482</v>
       </c>
       <c r="F322" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -23995,7 +23994,7 @@
         <v>409</v>
       </c>
       <c r="B377" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="C377">
         <v>351</v>
@@ -24464,7 +24463,7 @@
         <v>409</v>
       </c>
       <c r="B400" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C400">
         <v>374</v>
@@ -25113,25 +25112,25 @@
         <v>409</v>
       </c>
       <c r="B432" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C432" t="s">
         <v>2125</v>
       </c>
-      <c r="C432" t="s">
+      <c r="D432" t="s">
         <v>2126</v>
       </c>
-      <c r="D432" t="s">
+      <c r="E432" t="s">
         <v>2127</v>
-      </c>
-      <c r="E432" t="s">
-        <v>2128</v>
       </c>
       <c r="F432" t="s">
         <v>1518</v>
       </c>
       <c r="G432" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H432" t="s">
         <v>2129</v>
-      </c>
-      <c r="H432" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -25139,13 +25138,13 @@
         <v>409</v>
       </c>
       <c r="B433" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C433" t="s">
         <v>2131</v>
       </c>
-      <c r="C433" t="s">
-        <v>2132</v>
-      </c>
       <c r="D433" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E433">
         <v>2</v>
@@ -25154,10 +25153,10 @@
         <v>1518</v>
       </c>
       <c r="G433" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H433" t="s">
         <v>2129</v>
-      </c>
-      <c r="H433" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -25165,13 +25164,13 @@
         <v>409</v>
       </c>
       <c r="B434" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C434" t="s">
         <v>2133</v>
       </c>
-      <c r="C434" t="s">
+      <c r="D434" t="s">
         <v>2134</v>
-      </c>
-      <c r="D434" t="s">
-        <v>2135</v>
       </c>
     </row>
   </sheetData>
